--- a/WebApplication1/Forms/07_pabuç_bakım_Peene_II_III.xlsx
+++ b/WebApplication1/Forms/07_pabuç_bakım_Peene_II_III.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar.dal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serdar.dal\source\repos\WebApplication1\WebApplication1\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="37">
   <si>
     <r>
       <t xml:space="preserve">TAMIR EDILEN PABUÇLAR / </t>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>• Soket iç yapısındaki deformasyon ve delinme</t>
+  </si>
+  <si>
+    <t>{END}</t>
   </si>
 </sst>
 </file>
@@ -1004,32 +1007,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,39 +1024,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1088,27 +1064,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1130,6 +1096,43 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1146,32 +1149,32 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1715,7 +1718,7 @@
   <dimension ref="A1:BY194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="BI168" sqref="BI168"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1865,12 +1868,12 @@
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
       <c r="BC2" s="2"/>
-      <c r="BD2" s="83" t="s">
+      <c r="BD2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="84"/>
-      <c r="BG2" s="85"/>
+      <c r="BE2" s="124"/>
+      <c r="BF2" s="124"/>
+      <c r="BG2" s="125"/>
       <c r="BI2" s="4"/>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4"/>
@@ -1909,31 +1912,31 @@
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
-      <c r="R3" s="89" t="s">
+      <c r="R3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="107"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
       <c r="V3" s="9"/>
-      <c r="W3" s="89" t="s">
+      <c r="W3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="89"/>
+      <c r="X3" s="107"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="89" t="s">
+      <c r="AB3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="89"/>
+      <c r="AC3" s="107"/>
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
-      <c r="AG3" s="89" t="s">
+      <c r="AG3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="89"/>
+      <c r="AH3" s="107"/>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
@@ -1957,10 +1960,10 @@
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
       <c r="BC3" s="2"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="88"/>
+      <c r="BD3" s="126"/>
+      <c r="BE3" s="127"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="128"/>
       <c r="BI3" s="4"/>
       <c r="BJ3" s="4"/>
       <c r="BK3" s="4"/>
@@ -2035,14 +2038,14 @@
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
-      <c r="BD4" s="90" t="s">
+      <c r="BD4" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="BE4" s="83" t="s">
+      <c r="BE4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="85"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="125"/>
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
@@ -2113,18 +2116,18 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="92">
+      <c r="AZ5" s="85">
         <v>1</v>
       </c>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="92">
+      <c r="BB5" s="85">
         <v>2</v>
       </c>
       <c r="BC5" s="2"/>
-      <c r="BD5" s="91"/>
-      <c r="BE5" s="86"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="88"/>
+      <c r="BD5" s="130"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="128"/>
       <c r="BI5" s="4"/>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
@@ -2195,14 +2198,14 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
-      <c r="AZ6" s="93"/>
+      <c r="AZ6" s="86"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="93"/>
+      <c r="BB6" s="86"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="95"/>
-      <c r="BE6" s="97"/>
-      <c r="BF6" s="98"/>
-      <c r="BG6" s="99"/>
+      <c r="BD6" s="114"/>
+      <c r="BE6" s="115"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="117"/>
       <c r="BI6" s="4"/>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
@@ -2273,14 +2276,14 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="2"/>
-      <c r="AZ7" s="93"/>
+      <c r="AZ7" s="86"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="93"/>
+      <c r="BB7" s="86"/>
       <c r="BC7" s="2"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="101"/>
-      <c r="BG7" s="102"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="99"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="101"/>
       <c r="BI7" s="4"/>
       <c r="BJ7" s="4"/>
       <c r="BK7" s="4"/>
@@ -2351,14 +2354,14 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
-      <c r="AZ8" s="93"/>
+      <c r="AZ8" s="86"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="93"/>
+      <c r="BB8" s="86"/>
       <c r="BC8" s="2"/>
-      <c r="BD8" s="103"/>
-      <c r="BE8" s="104"/>
-      <c r="BF8" s="105"/>
-      <c r="BG8" s="106"/>
+      <c r="BD8" s="94"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="97"/>
+      <c r="BG8" s="98"/>
       <c r="BI8" s="4"/>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
@@ -2429,14 +2432,14 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
       <c r="AY9" s="2"/>
-      <c r="AZ9" s="93"/>
+      <c r="AZ9" s="86"/>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="93"/>
+      <c r="BB9" s="86"/>
       <c r="BC9" s="2"/>
-      <c r="BD9" s="96"/>
-      <c r="BE9" s="100"/>
-      <c r="BF9" s="101"/>
-      <c r="BG9" s="102"/>
+      <c r="BD9" s="95"/>
+      <c r="BE9" s="99"/>
+      <c r="BF9" s="100"/>
+      <c r="BG9" s="101"/>
       <c r="BI9" s="4"/>
       <c r="BJ9" s="4"/>
       <c r="BK9" s="4"/>
@@ -2507,14 +2510,14 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
       <c r="AY10" s="2"/>
-      <c r="AZ10" s="94"/>
+      <c r="AZ10" s="87"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="93"/>
+      <c r="BB10" s="86"/>
       <c r="BC10" s="2"/>
-      <c r="BD10" s="107"/>
-      <c r="BE10" s="104"/>
-      <c r="BF10" s="105"/>
-      <c r="BG10" s="106"/>
+      <c r="BD10" s="122"/>
+      <c r="BE10" s="96"/>
+      <c r="BF10" s="97"/>
+      <c r="BG10" s="98"/>
       <c r="BI10" s="4"/>
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
@@ -2589,12 +2592,12 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="93"/>
+      <c r="BB11" s="86"/>
       <c r="BC11" s="2"/>
-      <c r="BD11" s="96"/>
-      <c r="BE11" s="100"/>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="102"/>
+      <c r="BD11" s="95"/>
+      <c r="BE11" s="99"/>
+      <c r="BF11" s="100"/>
+      <c r="BG11" s="101"/>
       <c r="BI11" s="4"/>
       <c r="BJ11" s="4"/>
       <c r="BK11" s="4"/>
@@ -2665,16 +2668,16 @@
       <c r="AW12" s="6"/>
       <c r="AX12" s="2"/>
       <c r="AY12" s="2"/>
-      <c r="AZ12" s="92">
+      <c r="AZ12" s="85">
         <v>3</v>
       </c>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="93"/>
+      <c r="BB12" s="86"/>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="103"/>
-      <c r="BE12" s="104"/>
-      <c r="BF12" s="105"/>
-      <c r="BG12" s="106"/>
+      <c r="BD12" s="94"/>
+      <c r="BE12" s="96"/>
+      <c r="BF12" s="97"/>
+      <c r="BG12" s="98"/>
       <c r="BI12" s="4"/>
       <c r="BJ12" s="4"/>
       <c r="BK12" s="4"/>
@@ -2745,14 +2748,14 @@
       <c r="AW13" s="6"/>
       <c r="AX13" s="2"/>
       <c r="AY13" s="2"/>
-      <c r="AZ13" s="93"/>
+      <c r="AZ13" s="86"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="93"/>
+      <c r="BB13" s="86"/>
       <c r="BC13" s="2"/>
-      <c r="BD13" s="96"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="101"/>
-      <c r="BG13" s="102"/>
+      <c r="BD13" s="95"/>
+      <c r="BE13" s="99"/>
+      <c r="BF13" s="100"/>
+      <c r="BG13" s="101"/>
       <c r="BI13" s="4"/>
       <c r="BJ13" s="4"/>
       <c r="BK13" s="4"/>
@@ -2823,14 +2826,14 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
       <c r="AY14" s="2"/>
-      <c r="AZ14" s="93"/>
+      <c r="AZ14" s="86"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="93"/>
+      <c r="BB14" s="86"/>
       <c r="BC14" s="2"/>
-      <c r="BD14" s="107"/>
-      <c r="BE14" s="104"/>
-      <c r="BF14" s="105"/>
-      <c r="BG14" s="106"/>
+      <c r="BD14" s="122"/>
+      <c r="BE14" s="96"/>
+      <c r="BF14" s="97"/>
+      <c r="BG14" s="98"/>
       <c r="BI14" s="4"/>
       <c r="BJ14" s="4"/>
       <c r="BK14" s="4"/>
@@ -2901,14 +2904,14 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
-      <c r="AZ15" s="93"/>
+      <c r="AZ15" s="86"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="93"/>
+      <c r="BB15" s="86"/>
       <c r="BC15" s="2"/>
-      <c r="BD15" s="96"/>
-      <c r="BE15" s="100"/>
-      <c r="BF15" s="101"/>
-      <c r="BG15" s="102"/>
+      <c r="BD15" s="95"/>
+      <c r="BE15" s="99"/>
+      <c r="BF15" s="100"/>
+      <c r="BG15" s="101"/>
       <c r="BI15" s="4"/>
       <c r="BJ15" s="4"/>
       <c r="BK15" s="4"/>
@@ -2979,14 +2982,14 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
-      <c r="AZ16" s="93"/>
+      <c r="AZ16" s="86"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="93"/>
+      <c r="BB16" s="86"/>
       <c r="BC16" s="2"/>
-      <c r="BD16" s="103"/>
-      <c r="BE16" s="104"/>
-      <c r="BF16" s="105"/>
-      <c r="BG16" s="106"/>
+      <c r="BD16" s="94"/>
+      <c r="BE16" s="96"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="98"/>
       <c r="BI16" s="4"/>
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
@@ -3057,14 +3060,14 @@
       <c r="AW17" s="6"/>
       <c r="AX17" s="2"/>
       <c r="AY17" s="2"/>
-      <c r="AZ17" s="94"/>
+      <c r="AZ17" s="87"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="94"/>
+      <c r="BB17" s="87"/>
       <c r="BC17" s="2"/>
-      <c r="BD17" s="96"/>
-      <c r="BE17" s="100"/>
-      <c r="BF17" s="101"/>
-      <c r="BG17" s="102"/>
+      <c r="BD17" s="95"/>
+      <c r="BE17" s="99"/>
+      <c r="BF17" s="100"/>
+      <c r="BG17" s="101"/>
       <c r="BI17" s="4"/>
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
@@ -3139,10 +3142,10 @@
       <c r="BA18" s="2"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="2"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="104"/>
-      <c r="BF18" s="105"/>
-      <c r="BG18" s="106"/>
+      <c r="BD18" s="122"/>
+      <c r="BE18" s="96"/>
+      <c r="BF18" s="97"/>
+      <c r="BG18" s="98"/>
       <c r="BI18" s="4"/>
       <c r="BJ18" s="4"/>
       <c r="BK18" s="4"/>
@@ -3217,10 +3220,10 @@
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
       <c r="BC19" s="2"/>
-      <c r="BD19" s="96"/>
-      <c r="BE19" s="100"/>
-      <c r="BF19" s="101"/>
-      <c r="BG19" s="102"/>
+      <c r="BD19" s="95"/>
+      <c r="BE19" s="99"/>
+      <c r="BF19" s="100"/>
+      <c r="BG19" s="101"/>
       <c r="BI19" s="4"/>
       <c r="BJ19" s="4"/>
       <c r="BK19" s="4"/>
@@ -3249,59 +3252,59 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="89" t="s">
+      <c r="H20" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="89"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="89" t="s">
+      <c r="M20" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N20" s="89"/>
+      <c r="N20" s="107"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
-      <c r="R20" s="89" t="s">
+      <c r="R20" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S20" s="89"/>
+      <c r="S20" s="107"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
-      <c r="W20" s="89" t="s">
+      <c r="W20" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X20" s="89"/>
+      <c r="X20" s="107"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="89" t="s">
+      <c r="AB20" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="89"/>
+      <c r="AC20" s="107"/>
       <c r="AD20" s="9"/>
       <c r="AE20" s="9"/>
       <c r="AF20" s="9"/>
-      <c r="AG20" s="89" t="s">
+      <c r="AG20" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH20" s="89"/>
+      <c r="AH20" s="107"/>
       <c r="AI20" s="9"/>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
-      <c r="AL20" s="89" t="s">
+      <c r="AL20" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM20" s="89"/>
+      <c r="AM20" s="107"/>
       <c r="AN20" s="9"/>
       <c r="AO20" s="9"/>
       <c r="AP20" s="9"/>
-      <c r="AQ20" s="89" t="s">
+      <c r="AQ20" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR20" s="89"/>
+      <c r="AR20" s="107"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9" t="s">
@@ -3315,10 +3318,10 @@
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
-      <c r="BD20" s="103"/>
-      <c r="BE20" s="104"/>
-      <c r="BF20" s="105"/>
-      <c r="BG20" s="106"/>
+      <c r="BD20" s="94"/>
+      <c r="BE20" s="96"/>
+      <c r="BF20" s="97"/>
+      <c r="BG20" s="98"/>
       <c r="BI20" s="4"/>
       <c r="BJ20" s="4"/>
       <c r="BK20" s="4"/>
@@ -3393,10 +3396,10 @@
       <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
       <c r="BC21" s="2"/>
-      <c r="BD21" s="96"/>
-      <c r="BE21" s="100"/>
-      <c r="BF21" s="101"/>
-      <c r="BG21" s="102"/>
+      <c r="BD21" s="95"/>
+      <c r="BE21" s="99"/>
+      <c r="BF21" s="100"/>
+      <c r="BG21" s="101"/>
       <c r="BI21" s="4"/>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="4"/>
@@ -3467,18 +3470,18 @@
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
       <c r="AY22" s="27"/>
-      <c r="AZ22" s="92">
+      <c r="AZ22" s="85">
         <v>5</v>
       </c>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="92">
+      <c r="BB22" s="85">
         <v>6</v>
       </c>
       <c r="BC22" s="2"/>
-      <c r="BD22" s="107"/>
-      <c r="BE22" s="104"/>
-      <c r="BF22" s="105"/>
-      <c r="BG22" s="106"/>
+      <c r="BD22" s="122"/>
+      <c r="BE22" s="96"/>
+      <c r="BF22" s="97"/>
+      <c r="BG22" s="98"/>
       <c r="BI22" s="4"/>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="4"/>
@@ -3549,14 +3552,14 @@
       <c r="AW23" s="6"/>
       <c r="AX23" s="6"/>
       <c r="AY23" s="27"/>
-      <c r="AZ23" s="93"/>
+      <c r="AZ23" s="86"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="93"/>
+      <c r="BB23" s="86"/>
       <c r="BC23" s="2"/>
-      <c r="BD23" s="96"/>
-      <c r="BE23" s="100"/>
-      <c r="BF23" s="101"/>
-      <c r="BG23" s="102"/>
+      <c r="BD23" s="95"/>
+      <c r="BE23" s="99"/>
+      <c r="BF23" s="100"/>
+      <c r="BG23" s="101"/>
       <c r="BI23" s="4"/>
       <c r="BJ23" s="4"/>
       <c r="BK23" s="4"/>
@@ -3627,14 +3630,14 @@
       <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
       <c r="AY24" s="27"/>
-      <c r="AZ24" s="93"/>
+      <c r="AZ24" s="86"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="93"/>
+      <c r="BB24" s="86"/>
       <c r="BC24" s="2"/>
-      <c r="BD24" s="103"/>
-      <c r="BE24" s="104"/>
-      <c r="BF24" s="105"/>
-      <c r="BG24" s="106"/>
+      <c r="BD24" s="94"/>
+      <c r="BE24" s="96"/>
+      <c r="BF24" s="97"/>
+      <c r="BG24" s="98"/>
       <c r="BI24" s="4"/>
       <c r="BJ24" s="4"/>
       <c r="BK24" s="4"/>
@@ -3705,14 +3708,14 @@
       <c r="AW25" s="6"/>
       <c r="AX25" s="6"/>
       <c r="AY25" s="27"/>
-      <c r="AZ25" s="93"/>
+      <c r="AZ25" s="86"/>
       <c r="BA25" s="2"/>
-      <c r="BB25" s="93"/>
+      <c r="BB25" s="86"/>
       <c r="BC25" s="2"/>
-      <c r="BD25" s="96"/>
-      <c r="BE25" s="100"/>
-      <c r="BF25" s="101"/>
-      <c r="BG25" s="102"/>
+      <c r="BD25" s="95"/>
+      <c r="BE25" s="99"/>
+      <c r="BF25" s="100"/>
+      <c r="BG25" s="101"/>
       <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
       <c r="BK25" s="4"/>
@@ -3783,14 +3786,14 @@
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
       <c r="AY26" s="27"/>
-      <c r="AZ26" s="93"/>
+      <c r="AZ26" s="86"/>
       <c r="BA26" s="2"/>
-      <c r="BB26" s="93"/>
+      <c r="BB26" s="86"/>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="107"/>
-      <c r="BE26" s="104"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="106"/>
+      <c r="BD26" s="122"/>
+      <c r="BE26" s="96"/>
+      <c r="BF26" s="97"/>
+      <c r="BG26" s="98"/>
       <c r="BI26" s="4"/>
       <c r="BJ26" s="4"/>
       <c r="BK26" s="4"/>
@@ -3861,14 +3864,14 @@
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
       <c r="AY27" s="27"/>
-      <c r="AZ27" s="94"/>
+      <c r="AZ27" s="87"/>
       <c r="BA27" s="2"/>
-      <c r="BB27" s="93"/>
+      <c r="BB27" s="86"/>
       <c r="BC27" s="2"/>
-      <c r="BD27" s="96"/>
-      <c r="BE27" s="100"/>
-      <c r="BF27" s="101"/>
-      <c r="BG27" s="102"/>
+      <c r="BD27" s="95"/>
+      <c r="BE27" s="99"/>
+      <c r="BF27" s="100"/>
+      <c r="BG27" s="101"/>
       <c r="BI27" s="4"/>
       <c r="BJ27" s="4"/>
       <c r="BK27" s="4"/>
@@ -3943,12 +3946,12 @@
       <c r="AY28" s="27"/>
       <c r="AZ28" s="2"/>
       <c r="BA28" s="2"/>
-      <c r="BB28" s="93"/>
+      <c r="BB28" s="86"/>
       <c r="BC28" s="2"/>
-      <c r="BD28" s="103"/>
-      <c r="BE28" s="104"/>
-      <c r="BF28" s="105"/>
-      <c r="BG28" s="106"/>
+      <c r="BD28" s="94"/>
+      <c r="BE28" s="96"/>
+      <c r="BF28" s="97"/>
+      <c r="BG28" s="98"/>
       <c r="BI28" s="4"/>
       <c r="BJ28" s="4"/>
       <c r="BK28" s="4"/>
@@ -4019,16 +4022,16 @@
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
       <c r="AY29" s="27"/>
-      <c r="AZ29" s="92">
+      <c r="AZ29" s="85">
         <v>7</v>
       </c>
       <c r="BA29" s="2"/>
-      <c r="BB29" s="93"/>
+      <c r="BB29" s="86"/>
       <c r="BC29" s="2"/>
-      <c r="BD29" s="96"/>
-      <c r="BE29" s="100"/>
-      <c r="BF29" s="101"/>
-      <c r="BG29" s="102"/>
+      <c r="BD29" s="95"/>
+      <c r="BE29" s="99"/>
+      <c r="BF29" s="100"/>
+      <c r="BG29" s="101"/>
       <c r="BI29" s="4"/>
       <c r="BJ29" s="4"/>
       <c r="BK29" s="4"/>
@@ -4099,14 +4102,14 @@
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
       <c r="AY30" s="27"/>
-      <c r="AZ30" s="93"/>
+      <c r="AZ30" s="86"/>
       <c r="BA30" s="2"/>
-      <c r="BB30" s="93"/>
+      <c r="BB30" s="86"/>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="107"/>
-      <c r="BE30" s="104"/>
-      <c r="BF30" s="105"/>
-      <c r="BG30" s="106"/>
+      <c r="BD30" s="122"/>
+      <c r="BE30" s="96"/>
+      <c r="BF30" s="97"/>
+      <c r="BG30" s="98"/>
       <c r="BI30" s="4"/>
       <c r="BJ30" s="4"/>
       <c r="BK30" s="4"/>
@@ -4177,14 +4180,14 @@
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
       <c r="AY31" s="27"/>
-      <c r="AZ31" s="93"/>
+      <c r="AZ31" s="86"/>
       <c r="BA31" s="2"/>
-      <c r="BB31" s="93"/>
+      <c r="BB31" s="86"/>
       <c r="BC31" s="2"/>
-      <c r="BD31" s="96"/>
-      <c r="BE31" s="100"/>
-      <c r="BF31" s="101"/>
-      <c r="BG31" s="102"/>
+      <c r="BD31" s="95"/>
+      <c r="BE31" s="99"/>
+      <c r="BF31" s="100"/>
+      <c r="BG31" s="101"/>
       <c r="BI31" s="4"/>
       <c r="BJ31" s="4"/>
       <c r="BK31" s="4"/>
@@ -4255,14 +4258,14 @@
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
       <c r="AY32" s="27"/>
-      <c r="AZ32" s="93"/>
+      <c r="AZ32" s="86"/>
       <c r="BA32" s="2"/>
-      <c r="BB32" s="93"/>
+      <c r="BB32" s="86"/>
       <c r="BC32" s="2"/>
-      <c r="BD32" s="103"/>
-      <c r="BE32" s="104"/>
-      <c r="BF32" s="105"/>
-      <c r="BG32" s="106"/>
+      <c r="BD32" s="94"/>
+      <c r="BE32" s="96"/>
+      <c r="BF32" s="97"/>
+      <c r="BG32" s="98"/>
       <c r="BI32" s="4"/>
       <c r="BJ32" s="4"/>
       <c r="BK32" s="4"/>
@@ -4333,14 +4336,14 @@
       <c r="AW33" s="6"/>
       <c r="AX33" s="6"/>
       <c r="AY33" s="27"/>
-      <c r="AZ33" s="93"/>
+      <c r="AZ33" s="86"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="93"/>
+      <c r="BB33" s="86"/>
       <c r="BC33" s="2"/>
-      <c r="BD33" s="96"/>
-      <c r="BE33" s="100"/>
-      <c r="BF33" s="101"/>
-      <c r="BG33" s="102"/>
+      <c r="BD33" s="95"/>
+      <c r="BE33" s="99"/>
+      <c r="BF33" s="100"/>
+      <c r="BG33" s="101"/>
       <c r="BI33" s="4"/>
       <c r="BJ33" s="4"/>
       <c r="BK33" s="4"/>
@@ -4411,14 +4414,14 @@
       <c r="AW34" s="6"/>
       <c r="AX34" s="6"/>
       <c r="AY34" s="27"/>
-      <c r="AZ34" s="94"/>
+      <c r="AZ34" s="87"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="94"/>
+      <c r="BB34" s="87"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="107"/>
-      <c r="BE34" s="104"/>
-      <c r="BF34" s="105"/>
-      <c r="BG34" s="106"/>
+      <c r="BD34" s="122"/>
+      <c r="BE34" s="96"/>
+      <c r="BF34" s="97"/>
+      <c r="BG34" s="98"/>
       <c r="BI34" s="4"/>
       <c r="BJ34" s="4"/>
       <c r="BK34" s="4"/>
@@ -4493,10 +4496,10 @@
       <c r="BA35" s="2"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
-      <c r="BD35" s="96"/>
-      <c r="BE35" s="100"/>
-      <c r="BF35" s="101"/>
-      <c r="BG35" s="102"/>
+      <c r="BD35" s="95"/>
+      <c r="BE35" s="99"/>
+      <c r="BF35" s="100"/>
+      <c r="BG35" s="101"/>
       <c r="BI35" s="4"/>
       <c r="BJ35" s="4"/>
       <c r="BK35" s="4"/>
@@ -4571,10 +4574,10 @@
       <c r="BA36" s="6"/>
       <c r="BB36" s="6"/>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="103"/>
-      <c r="BE36" s="104"/>
-      <c r="BF36" s="105"/>
-      <c r="BG36" s="106"/>
+      <c r="BD36" s="94"/>
+      <c r="BE36" s="96"/>
+      <c r="BF36" s="97"/>
+      <c r="BG36" s="98"/>
       <c r="BI36" s="4"/>
       <c r="BJ36" s="4"/>
       <c r="BK36" s="4"/>
@@ -4649,10 +4652,10 @@
       <c r="BA37" s="6"/>
       <c r="BB37" s="6"/>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="96"/>
-      <c r="BE37" s="100"/>
-      <c r="BF37" s="101"/>
-      <c r="BG37" s="102"/>
+      <c r="BD37" s="95"/>
+      <c r="BE37" s="99"/>
+      <c r="BF37" s="100"/>
+      <c r="BG37" s="101"/>
       <c r="BI37" s="4"/>
       <c r="BJ37" s="4"/>
       <c r="BK37" s="4"/>
@@ -4729,10 +4732,10 @@
       <c r="BA38" s="109"/>
       <c r="BB38" s="110"/>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="107"/>
-      <c r="BE38" s="104"/>
-      <c r="BF38" s="105"/>
-      <c r="BG38" s="106"/>
+      <c r="BD38" s="122"/>
+      <c r="BE38" s="96"/>
+      <c r="BF38" s="97"/>
+      <c r="BG38" s="98"/>
       <c r="BI38" s="4"/>
       <c r="BJ38" s="4"/>
       <c r="BK38" s="4"/>
@@ -4807,10 +4810,10 @@
       <c r="BA39" s="112"/>
       <c r="BB39" s="113"/>
       <c r="BC39" s="2"/>
-      <c r="BD39" s="96"/>
-      <c r="BE39" s="100"/>
-      <c r="BF39" s="101"/>
-      <c r="BG39" s="102"/>
+      <c r="BD39" s="95"/>
+      <c r="BE39" s="99"/>
+      <c r="BF39" s="100"/>
+      <c r="BG39" s="101"/>
       <c r="BI39" s="4"/>
       <c r="BJ39" s="4"/>
       <c r="BK39" s="4"/>
@@ -4885,10 +4888,10 @@
       <c r="BA40" s="6"/>
       <c r="BB40" s="6"/>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="103"/>
-      <c r="BE40" s="104"/>
-      <c r="BF40" s="105"/>
-      <c r="BG40" s="106"/>
+      <c r="BD40" s="94"/>
+      <c r="BE40" s="96"/>
+      <c r="BF40" s="97"/>
+      <c r="BG40" s="98"/>
       <c r="BI40" s="4"/>
       <c r="BJ40" s="4"/>
       <c r="BK40" s="4"/>
@@ -4917,59 +4920,59 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="89" t="s">
+      <c r="H41" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="89"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
-      <c r="M41" s="89" t="s">
+      <c r="M41" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N41" s="89"/>
+      <c r="N41" s="107"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="89" t="s">
+      <c r="R41" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S41" s="89"/>
+      <c r="S41" s="107"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="89" t="s">
+      <c r="W41" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X41" s="89"/>
+      <c r="X41" s="107"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
-      <c r="AB41" s="89" t="s">
+      <c r="AB41" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC41" s="89"/>
+      <c r="AC41" s="107"/>
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="9"/>
-      <c r="AG41" s="89" t="s">
+      <c r="AG41" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH41" s="89"/>
+      <c r="AH41" s="107"/>
       <c r="AI41" s="9"/>
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
-      <c r="AL41" s="89" t="s">
+      <c r="AL41" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM41" s="89"/>
+      <c r="AM41" s="107"/>
       <c r="AN41" s="9"/>
       <c r="AO41" s="9"/>
       <c r="AP41" s="9"/>
-      <c r="AQ41" s="89" t="s">
+      <c r="AQ41" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR41" s="89"/>
+      <c r="AR41" s="107"/>
       <c r="AS41" s="9"/>
       <c r="AT41" s="9"/>
       <c r="AU41" s="9" t="s">
@@ -4983,10 +4986,10 @@
       <c r="BA41" s="6"/>
       <c r="BB41" s="6"/>
       <c r="BC41" s="2"/>
-      <c r="BD41" s="96"/>
-      <c r="BE41" s="100"/>
-      <c r="BF41" s="101"/>
-      <c r="BG41" s="102"/>
+      <c r="BD41" s="95"/>
+      <c r="BE41" s="99"/>
+      <c r="BF41" s="100"/>
+      <c r="BG41" s="101"/>
       <c r="BI41" s="4"/>
       <c r="BJ41" s="4"/>
       <c r="BK41" s="4"/>
@@ -5061,10 +5064,10 @@
       <c r="BA42" s="2"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
-      <c r="BD42" s="107"/>
-      <c r="BE42" s="104"/>
-      <c r="BF42" s="105"/>
-      <c r="BG42" s="106"/>
+      <c r="BD42" s="122"/>
+      <c r="BE42" s="96"/>
+      <c r="BF42" s="97"/>
+      <c r="BG42" s="98"/>
       <c r="BI42" s="4"/>
       <c r="BJ42" s="4"/>
       <c r="BK42" s="4"/>
@@ -5135,18 +5138,18 @@
       <c r="AW43" s="6"/>
       <c r="AX43" s="6"/>
       <c r="AY43" s="27"/>
-      <c r="AZ43" s="92">
+      <c r="AZ43" s="85">
         <v>11</v>
       </c>
       <c r="BA43" s="2"/>
-      <c r="BB43" s="92">
+      <c r="BB43" s="85">
         <v>12</v>
       </c>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="96"/>
-      <c r="BE43" s="100"/>
-      <c r="BF43" s="101"/>
-      <c r="BG43" s="102"/>
+      <c r="BD43" s="95"/>
+      <c r="BE43" s="99"/>
+      <c r="BF43" s="100"/>
+      <c r="BG43" s="101"/>
       <c r="BI43" s="4"/>
       <c r="BJ43" s="4"/>
       <c r="BK43" s="4"/>
@@ -5217,14 +5220,14 @@
       <c r="AW44" s="6"/>
       <c r="AX44" s="6"/>
       <c r="AY44" s="27"/>
-      <c r="AZ44" s="93"/>
+      <c r="AZ44" s="86"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="93"/>
+      <c r="BB44" s="86"/>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="103"/>
-      <c r="BE44" s="104"/>
-      <c r="BF44" s="105"/>
-      <c r="BG44" s="106"/>
+      <c r="BD44" s="94"/>
+      <c r="BE44" s="96"/>
+      <c r="BF44" s="97"/>
+      <c r="BG44" s="98"/>
       <c r="BI44" s="4"/>
       <c r="BJ44" s="4"/>
       <c r="BK44" s="4"/>
@@ -5295,14 +5298,14 @@
       <c r="AW45" s="6"/>
       <c r="AX45" s="6"/>
       <c r="AY45" s="27"/>
-      <c r="AZ45" s="93"/>
+      <c r="AZ45" s="86"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="93"/>
+      <c r="BB45" s="86"/>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="96"/>
-      <c r="BE45" s="100"/>
-      <c r="BF45" s="101"/>
-      <c r="BG45" s="102"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="99"/>
+      <c r="BF45" s="100"/>
+      <c r="BG45" s="101"/>
       <c r="BI45" s="4"/>
       <c r="BJ45" s="4"/>
       <c r="BK45" s="4"/>
@@ -5373,14 +5376,14 @@
       <c r="AW46" s="6"/>
       <c r="AX46" s="6"/>
       <c r="AY46" s="27"/>
-      <c r="AZ46" s="93"/>
+      <c r="AZ46" s="86"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="93"/>
+      <c r="BB46" s="86"/>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="107"/>
-      <c r="BE46" s="104"/>
-      <c r="BF46" s="105"/>
-      <c r="BG46" s="106"/>
+      <c r="BD46" s="122"/>
+      <c r="BE46" s="96"/>
+      <c r="BF46" s="97"/>
+      <c r="BG46" s="98"/>
       <c r="BI46" s="4"/>
       <c r="BJ46" s="4"/>
       <c r="BK46" s="4"/>
@@ -5451,14 +5454,14 @@
       <c r="AW47" s="6"/>
       <c r="AX47" s="6"/>
       <c r="AY47" s="27"/>
-      <c r="AZ47" s="93"/>
+      <c r="AZ47" s="86"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="93"/>
+      <c r="BB47" s="86"/>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="96"/>
-      <c r="BE47" s="100"/>
-      <c r="BF47" s="101"/>
-      <c r="BG47" s="102"/>
+      <c r="BD47" s="95"/>
+      <c r="BE47" s="99"/>
+      <c r="BF47" s="100"/>
+      <c r="BG47" s="101"/>
       <c r="BI47" s="4"/>
       <c r="BJ47" s="4"/>
       <c r="BK47" s="4"/>
@@ -5529,14 +5532,14 @@
       <c r="AW48" s="6"/>
       <c r="AX48" s="6"/>
       <c r="AY48" s="27"/>
-      <c r="AZ48" s="94"/>
+      <c r="AZ48" s="87"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="93"/>
+      <c r="BB48" s="86"/>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="103"/>
-      <c r="BE48" s="104"/>
-      <c r="BF48" s="105"/>
-      <c r="BG48" s="106"/>
+      <c r="BD48" s="94"/>
+      <c r="BE48" s="96"/>
+      <c r="BF48" s="97"/>
+      <c r="BG48" s="98"/>
       <c r="BI48" s="4"/>
       <c r="BJ48" s="4"/>
       <c r="BK48" s="4"/>
@@ -5611,12 +5614,12 @@
       <c r="AY49" s="27"/>
       <c r="AZ49" s="2"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="93"/>
+      <c r="BB49" s="86"/>
       <c r="BC49" s="2"/>
-      <c r="BD49" s="96"/>
-      <c r="BE49" s="100"/>
-      <c r="BF49" s="101"/>
-      <c r="BG49" s="102"/>
+      <c r="BD49" s="95"/>
+      <c r="BE49" s="99"/>
+      <c r="BF49" s="100"/>
+      <c r="BG49" s="101"/>
       <c r="BI49" s="4"/>
       <c r="BJ49" s="4"/>
       <c r="BK49" s="4"/>
@@ -5687,16 +5690,16 @@
       <c r="AW50" s="6"/>
       <c r="AX50" s="6"/>
       <c r="AY50" s="27"/>
-      <c r="AZ50" s="92">
+      <c r="AZ50" s="85">
         <v>13</v>
       </c>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="93"/>
+      <c r="BB50" s="86"/>
       <c r="BC50" s="2"/>
-      <c r="BD50" s="107"/>
-      <c r="BE50" s="104"/>
-      <c r="BF50" s="105"/>
-      <c r="BG50" s="106"/>
+      <c r="BD50" s="122"/>
+      <c r="BE50" s="96"/>
+      <c r="BF50" s="97"/>
+      <c r="BG50" s="98"/>
       <c r="BI50" s="4"/>
       <c r="BJ50" s="4"/>
       <c r="BK50" s="4"/>
@@ -5767,14 +5770,14 @@
       <c r="AW51" s="6"/>
       <c r="AX51" s="6"/>
       <c r="AY51" s="27"/>
-      <c r="AZ51" s="93"/>
+      <c r="AZ51" s="86"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="93"/>
+      <c r="BB51" s="86"/>
       <c r="BC51" s="2"/>
-      <c r="BD51" s="96"/>
-      <c r="BE51" s="100"/>
-      <c r="BF51" s="101"/>
-      <c r="BG51" s="102"/>
+      <c r="BD51" s="95"/>
+      <c r="BE51" s="99"/>
+      <c r="BF51" s="100"/>
+      <c r="BG51" s="101"/>
       <c r="BI51" s="4"/>
       <c r="BJ51" s="4"/>
       <c r="BK51" s="4"/>
@@ -5845,14 +5848,14 @@
       <c r="AW52" s="6"/>
       <c r="AX52" s="6"/>
       <c r="AY52" s="27"/>
-      <c r="AZ52" s="93"/>
+      <c r="AZ52" s="86"/>
       <c r="BA52" s="2"/>
-      <c r="BB52" s="93"/>
+      <c r="BB52" s="86"/>
       <c r="BC52" s="2"/>
-      <c r="BD52" s="103"/>
-      <c r="BE52" s="104"/>
-      <c r="BF52" s="105"/>
-      <c r="BG52" s="106"/>
+      <c r="BD52" s="94"/>
+      <c r="BE52" s="96"/>
+      <c r="BF52" s="97"/>
+      <c r="BG52" s="98"/>
       <c r="BI52" s="4"/>
       <c r="BJ52" s="4"/>
       <c r="BK52" s="4"/>
@@ -5923,14 +5926,14 @@
       <c r="AW53" s="6"/>
       <c r="AX53" s="6"/>
       <c r="AY53" s="27"/>
-      <c r="AZ53" s="93"/>
+      <c r="AZ53" s="86"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="93"/>
+      <c r="BB53" s="86"/>
       <c r="BC53" s="2"/>
-      <c r="BD53" s="96"/>
-      <c r="BE53" s="100"/>
-      <c r="BF53" s="101"/>
-      <c r="BG53" s="102"/>
+      <c r="BD53" s="95"/>
+      <c r="BE53" s="99"/>
+      <c r="BF53" s="100"/>
+      <c r="BG53" s="101"/>
       <c r="BI53" s="4"/>
       <c r="BJ53" s="4"/>
       <c r="BK53" s="4"/>
@@ -6001,14 +6004,14 @@
       <c r="AW54" s="6"/>
       <c r="AX54" s="6"/>
       <c r="AY54" s="27"/>
-      <c r="AZ54" s="93"/>
+      <c r="AZ54" s="86"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="93"/>
+      <c r="BB54" s="86"/>
       <c r="BC54" s="2"/>
-      <c r="BD54" s="107"/>
-      <c r="BE54" s="104"/>
-      <c r="BF54" s="105"/>
-      <c r="BG54" s="106"/>
+      <c r="BD54" s="122"/>
+      <c r="BE54" s="96"/>
+      <c r="BF54" s="97"/>
+      <c r="BG54" s="98"/>
       <c r="BI54" s="4"/>
       <c r="BJ54" s="4"/>
       <c r="BK54" s="4"/>
@@ -6079,14 +6082,14 @@
       <c r="AW55" s="6"/>
       <c r="AX55" s="6"/>
       <c r="AY55" s="27"/>
-      <c r="AZ55" s="94"/>
+      <c r="AZ55" s="87"/>
       <c r="BA55" s="2"/>
-      <c r="BB55" s="94"/>
+      <c r="BB55" s="87"/>
       <c r="BC55" s="2"/>
-      <c r="BD55" s="96"/>
-      <c r="BE55" s="100"/>
-      <c r="BF55" s="101"/>
-      <c r="BG55" s="102"/>
+      <c r="BD55" s="95"/>
+      <c r="BE55" s="99"/>
+      <c r="BF55" s="100"/>
+      <c r="BG55" s="101"/>
       <c r="BI55" s="4"/>
       <c r="BJ55" s="4"/>
       <c r="BK55" s="4"/>
@@ -6161,10 +6164,10 @@
       <c r="BA56" s="2"/>
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
-      <c r="BD56" s="103"/>
-      <c r="BE56" s="104"/>
-      <c r="BF56" s="105"/>
-      <c r="BG56" s="106"/>
+      <c r="BD56" s="94"/>
+      <c r="BE56" s="96"/>
+      <c r="BF56" s="97"/>
+      <c r="BG56" s="98"/>
       <c r="BI56" s="4"/>
       <c r="BJ56" s="4"/>
       <c r="BK56" s="4"/>
@@ -6239,10 +6242,10 @@
       <c r="BA57" s="2"/>
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
-      <c r="BD57" s="96"/>
-      <c r="BE57" s="100"/>
-      <c r="BF57" s="101"/>
-      <c r="BG57" s="102"/>
+      <c r="BD57" s="95"/>
+      <c r="BE57" s="99"/>
+      <c r="BF57" s="100"/>
+      <c r="BG57" s="101"/>
       <c r="BI57" s="4"/>
       <c r="BJ57" s="4"/>
       <c r="BK57" s="4"/>
@@ -6271,59 +6274,59 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="89" t="s">
+      <c r="H58" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="89"/>
+      <c r="I58" s="107"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
-      <c r="M58" s="89" t="s">
+      <c r="M58" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N58" s="89"/>
+      <c r="N58" s="107"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
-      <c r="R58" s="89" t="s">
+      <c r="R58" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S58" s="89"/>
+      <c r="S58" s="107"/>
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="89" t="s">
+      <c r="W58" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X58" s="89"/>
+      <c r="X58" s="107"/>
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
-      <c r="AB58" s="89" t="s">
+      <c r="AB58" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC58" s="89"/>
+      <c r="AC58" s="107"/>
       <c r="AD58" s="9"/>
       <c r="AE58" s="9"/>
       <c r="AF58" s="9"/>
-      <c r="AG58" s="89" t="s">
+      <c r="AG58" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH58" s="89"/>
+      <c r="AH58" s="107"/>
       <c r="AI58" s="9"/>
       <c r="AJ58" s="9"/>
       <c r="AK58" s="9"/>
-      <c r="AL58" s="89" t="s">
+      <c r="AL58" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM58" s="89"/>
+      <c r="AM58" s="107"/>
       <c r="AN58" s="9"/>
       <c r="AO58" s="9"/>
       <c r="AP58" s="9"/>
-      <c r="AQ58" s="89" t="s">
+      <c r="AQ58" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR58" s="89"/>
+      <c r="AR58" s="107"/>
       <c r="AS58" s="9"/>
       <c r="AT58" s="9"/>
       <c r="AU58" s="9" t="s">
@@ -6337,10 +6340,10 @@
       <c r="BA58" s="2"/>
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
-      <c r="BD58" s="107"/>
-      <c r="BE58" s="104"/>
-      <c r="BF58" s="105"/>
-      <c r="BG58" s="106"/>
+      <c r="BD58" s="122"/>
+      <c r="BE58" s="96"/>
+      <c r="BF58" s="97"/>
+      <c r="BG58" s="98"/>
       <c r="BI58" s="4"/>
       <c r="BJ58" s="4"/>
       <c r="BK58" s="4"/>
@@ -6415,10 +6418,10 @@
       <c r="BA59" s="2"/>
       <c r="BB59" s="2"/>
       <c r="BC59" s="2"/>
-      <c r="BD59" s="96"/>
-      <c r="BE59" s="100"/>
-      <c r="BF59" s="101"/>
-      <c r="BG59" s="102"/>
+      <c r="BD59" s="95"/>
+      <c r="BE59" s="99"/>
+      <c r="BF59" s="100"/>
+      <c r="BG59" s="101"/>
       <c r="BI59" s="4"/>
       <c r="BJ59" s="4"/>
       <c r="BK59" s="4"/>
@@ -6489,18 +6492,18 @@
       <c r="AW60" s="6"/>
       <c r="AX60" s="6"/>
       <c r="AY60" s="27"/>
-      <c r="AZ60" s="92">
+      <c r="AZ60" s="85">
         <v>15</v>
       </c>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="92">
+      <c r="BB60" s="85">
         <v>16</v>
       </c>
       <c r="BC60" s="2"/>
-      <c r="BD60" s="103"/>
-      <c r="BE60" s="104"/>
-      <c r="BF60" s="105"/>
-      <c r="BG60" s="106"/>
+      <c r="BD60" s="94"/>
+      <c r="BE60" s="96"/>
+      <c r="BF60" s="97"/>
+      <c r="BG60" s="98"/>
       <c r="BI60" s="4"/>
       <c r="BJ60" s="4"/>
       <c r="BK60" s="4"/>
@@ -6571,14 +6574,14 @@
       <c r="AW61" s="6"/>
       <c r="AX61" s="6"/>
       <c r="AY61" s="27"/>
-      <c r="AZ61" s="93"/>
+      <c r="AZ61" s="86"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="93"/>
+      <c r="BB61" s="86"/>
       <c r="BC61" s="2"/>
-      <c r="BD61" s="96"/>
-      <c r="BE61" s="100"/>
-      <c r="BF61" s="101"/>
-      <c r="BG61" s="102"/>
+      <c r="BD61" s="95"/>
+      <c r="BE61" s="99"/>
+      <c r="BF61" s="100"/>
+      <c r="BG61" s="101"/>
       <c r="BI61" s="4"/>
       <c r="BJ61" s="4"/>
       <c r="BK61" s="4"/>
@@ -6649,14 +6652,14 @@
       <c r="AW62" s="6"/>
       <c r="AX62" s="6"/>
       <c r="AY62" s="27"/>
-      <c r="AZ62" s="93"/>
+      <c r="AZ62" s="86"/>
       <c r="BA62" s="2"/>
-      <c r="BB62" s="93"/>
+      <c r="BB62" s="86"/>
       <c r="BC62" s="2"/>
-      <c r="BD62" s="107"/>
-      <c r="BE62" s="104"/>
-      <c r="BF62" s="105"/>
-      <c r="BG62" s="106"/>
+      <c r="BD62" s="122"/>
+      <c r="BE62" s="96"/>
+      <c r="BF62" s="97"/>
+      <c r="BG62" s="98"/>
       <c r="BI62" s="4"/>
       <c r="BJ62" s="4"/>
       <c r="BK62" s="4"/>
@@ -6727,14 +6730,14 @@
       <c r="AW63" s="6"/>
       <c r="AX63" s="6"/>
       <c r="AY63" s="27"/>
-      <c r="AZ63" s="93"/>
+      <c r="AZ63" s="86"/>
       <c r="BA63" s="2"/>
-      <c r="BB63" s="93"/>
+      <c r="BB63" s="86"/>
       <c r="BC63" s="2"/>
-      <c r="BD63" s="96"/>
-      <c r="BE63" s="100"/>
-      <c r="BF63" s="101"/>
-      <c r="BG63" s="102"/>
+      <c r="BD63" s="95"/>
+      <c r="BE63" s="99"/>
+      <c r="BF63" s="100"/>
+      <c r="BG63" s="101"/>
       <c r="BI63" s="4"/>
       <c r="BJ63" s="4"/>
       <c r="BK63" s="4"/>
@@ -6805,14 +6808,14 @@
       <c r="AW64" s="6"/>
       <c r="AX64" s="6"/>
       <c r="AY64" s="27"/>
-      <c r="AZ64" s="93"/>
+      <c r="AZ64" s="86"/>
       <c r="BA64" s="2"/>
-      <c r="BB64" s="93"/>
+      <c r="BB64" s="86"/>
       <c r="BC64" s="2"/>
-      <c r="BD64" s="103"/>
-      <c r="BE64" s="104"/>
-      <c r="BF64" s="105"/>
-      <c r="BG64" s="106"/>
+      <c r="BD64" s="94"/>
+      <c r="BE64" s="96"/>
+      <c r="BF64" s="97"/>
+      <c r="BG64" s="98"/>
       <c r="BI64" s="4"/>
       <c r="BJ64" s="4"/>
       <c r="BK64" s="4"/>
@@ -6883,14 +6886,14 @@
       <c r="AW65" s="6"/>
       <c r="AX65" s="6"/>
       <c r="AY65" s="27"/>
-      <c r="AZ65" s="94"/>
+      <c r="AZ65" s="87"/>
       <c r="BA65" s="2"/>
-      <c r="BB65" s="93"/>
+      <c r="BB65" s="86"/>
       <c r="BC65" s="2"/>
-      <c r="BD65" s="96"/>
-      <c r="BE65" s="100"/>
-      <c r="BF65" s="101"/>
-      <c r="BG65" s="102"/>
+      <c r="BD65" s="95"/>
+      <c r="BE65" s="99"/>
+      <c r="BF65" s="100"/>
+      <c r="BG65" s="101"/>
       <c r="BI65" s="4"/>
       <c r="BJ65" s="4"/>
       <c r="BK65" s="4"/>
@@ -6965,12 +6968,12 @@
       <c r="AY66" s="27"/>
       <c r="AZ66" s="2"/>
       <c r="BA66" s="2"/>
-      <c r="BB66" s="93"/>
+      <c r="BB66" s="86"/>
       <c r="BC66" s="2"/>
-      <c r="BD66" s="107"/>
-      <c r="BE66" s="104"/>
-      <c r="BF66" s="105"/>
-      <c r="BG66" s="106"/>
+      <c r="BD66" s="122"/>
+      <c r="BE66" s="96"/>
+      <c r="BF66" s="97"/>
+      <c r="BG66" s="98"/>
       <c r="BI66" s="4"/>
       <c r="BJ66" s="4"/>
       <c r="BK66" s="4"/>
@@ -7041,16 +7044,16 @@
       <c r="AW67" s="6"/>
       <c r="AX67" s="2"/>
       <c r="AY67" s="27"/>
-      <c r="AZ67" s="92">
+      <c r="AZ67" s="85">
         <v>17</v>
       </c>
       <c r="BA67" s="2"/>
-      <c r="BB67" s="93"/>
+      <c r="BB67" s="86"/>
       <c r="BC67" s="2"/>
-      <c r="BD67" s="96"/>
-      <c r="BE67" s="100"/>
-      <c r="BF67" s="101"/>
-      <c r="BG67" s="102"/>
+      <c r="BD67" s="95"/>
+      <c r="BE67" s="99"/>
+      <c r="BF67" s="100"/>
+      <c r="BG67" s="101"/>
       <c r="BI67" s="4"/>
       <c r="BJ67" s="4"/>
       <c r="BK67" s="4"/>
@@ -7121,14 +7124,14 @@
       <c r="AW68" s="6"/>
       <c r="AX68" s="6"/>
       <c r="AY68" s="27"/>
-      <c r="AZ68" s="93"/>
+      <c r="AZ68" s="86"/>
       <c r="BA68" s="2"/>
-      <c r="BB68" s="93"/>
+      <c r="BB68" s="86"/>
       <c r="BC68" s="2"/>
-      <c r="BD68" s="103"/>
-      <c r="BE68" s="104"/>
-      <c r="BF68" s="105"/>
-      <c r="BG68" s="106"/>
+      <c r="BD68" s="94"/>
+      <c r="BE68" s="96"/>
+      <c r="BF68" s="97"/>
+      <c r="BG68" s="98"/>
       <c r="BI68" s="4"/>
       <c r="BJ68" s="4"/>
       <c r="BK68" s="4"/>
@@ -7199,14 +7202,14 @@
       <c r="AW69" s="6"/>
       <c r="AX69" s="6"/>
       <c r="AY69" s="27"/>
-      <c r="AZ69" s="93"/>
+      <c r="AZ69" s="86"/>
       <c r="BA69" s="2"/>
-      <c r="BB69" s="93"/>
+      <c r="BB69" s="86"/>
       <c r="BC69" s="2"/>
-      <c r="BD69" s="96"/>
-      <c r="BE69" s="100"/>
-      <c r="BF69" s="101"/>
-      <c r="BG69" s="102"/>
+      <c r="BD69" s="95"/>
+      <c r="BE69" s="99"/>
+      <c r="BF69" s="100"/>
+      <c r="BG69" s="101"/>
       <c r="BI69" s="4"/>
       <c r="BJ69" s="4"/>
       <c r="BK69" s="4"/>
@@ -7277,14 +7280,14 @@
       <c r="AW70" s="6"/>
       <c r="AX70" s="6"/>
       <c r="AY70" s="27"/>
-      <c r="AZ70" s="93"/>
+      <c r="AZ70" s="86"/>
       <c r="BA70" s="2"/>
-      <c r="BB70" s="93"/>
+      <c r="BB70" s="86"/>
       <c r="BC70" s="2"/>
-      <c r="BD70" s="107"/>
-      <c r="BE70" s="104"/>
-      <c r="BF70" s="105"/>
-      <c r="BG70" s="106"/>
+      <c r="BD70" s="122"/>
+      <c r="BE70" s="96"/>
+      <c r="BF70" s="97"/>
+      <c r="BG70" s="98"/>
       <c r="BI70" s="4"/>
       <c r="BJ70" s="4"/>
       <c r="BK70" s="4"/>
@@ -7355,14 +7358,14 @@
       <c r="AW71" s="6"/>
       <c r="AX71" s="6"/>
       <c r="AY71" s="27"/>
-      <c r="AZ71" s="93"/>
+      <c r="AZ71" s="86"/>
       <c r="BA71" s="2"/>
-      <c r="BB71" s="93"/>
+      <c r="BB71" s="86"/>
       <c r="BC71" s="2"/>
-      <c r="BD71" s="96"/>
-      <c r="BE71" s="100"/>
-      <c r="BF71" s="101"/>
-      <c r="BG71" s="102"/>
+      <c r="BD71" s="95"/>
+      <c r="BE71" s="99"/>
+      <c r="BF71" s="100"/>
+      <c r="BG71" s="101"/>
       <c r="BI71" s="4"/>
       <c r="BJ71" s="4"/>
       <c r="BK71" s="4"/>
@@ -7433,14 +7436,14 @@
       <c r="AW72" s="6"/>
       <c r="AX72" s="6"/>
       <c r="AY72" s="27"/>
-      <c r="AZ72" s="94"/>
+      <c r="AZ72" s="87"/>
       <c r="BA72" s="2"/>
-      <c r="BB72" s="94"/>
+      <c r="BB72" s="87"/>
       <c r="BC72" s="2"/>
-      <c r="BD72" s="103"/>
-      <c r="BE72" s="104"/>
-      <c r="BF72" s="105"/>
-      <c r="BG72" s="106"/>
+      <c r="BD72" s="94"/>
+      <c r="BE72" s="96"/>
+      <c r="BF72" s="97"/>
+      <c r="BG72" s="98"/>
       <c r="BI72" s="4"/>
       <c r="BJ72" s="4"/>
       <c r="BK72" s="4"/>
@@ -7515,10 +7518,10 @@
       <c r="BA73" s="6"/>
       <c r="BB73" s="6"/>
       <c r="BC73" s="2"/>
-      <c r="BD73" s="96"/>
-      <c r="BE73" s="100"/>
-      <c r="BF73" s="101"/>
-      <c r="BG73" s="102"/>
+      <c r="BD73" s="95"/>
+      <c r="BE73" s="99"/>
+      <c r="BF73" s="100"/>
+      <c r="BG73" s="101"/>
       <c r="BI73" s="4"/>
       <c r="BJ73" s="4"/>
       <c r="BK73" s="4"/>
@@ -7593,10 +7596,10 @@
       <c r="BA74" s="6"/>
       <c r="BB74" s="6"/>
       <c r="BC74" s="2"/>
-      <c r="BD74" s="107"/>
-      <c r="BE74" s="104"/>
-      <c r="BF74" s="105"/>
-      <c r="BG74" s="106"/>
+      <c r="BD74" s="122"/>
+      <c r="BE74" s="96"/>
+      <c r="BF74" s="97"/>
+      <c r="BG74" s="98"/>
       <c r="BI74" s="4"/>
       <c r="BJ74" s="4"/>
       <c r="BK74" s="4"/>
@@ -7671,10 +7674,10 @@
       <c r="BA75" s="6"/>
       <c r="BB75" s="6"/>
       <c r="BC75" s="2"/>
-      <c r="BD75" s="96"/>
-      <c r="BE75" s="100"/>
-      <c r="BF75" s="101"/>
-      <c r="BG75" s="102"/>
+      <c r="BD75" s="95"/>
+      <c r="BE75" s="99"/>
+      <c r="BF75" s="100"/>
+      <c r="BG75" s="101"/>
       <c r="BI75" s="4"/>
       <c r="BJ75" s="4"/>
       <c r="BK75" s="4"/>
@@ -7751,10 +7754,10 @@
       <c r="BA76" s="109"/>
       <c r="BB76" s="110"/>
       <c r="BC76" s="2"/>
-      <c r="BD76" s="103"/>
-      <c r="BE76" s="104"/>
-      <c r="BF76" s="105"/>
-      <c r="BG76" s="106"/>
+      <c r="BD76" s="94"/>
+      <c r="BE76" s="96"/>
+      <c r="BF76" s="97"/>
+      <c r="BG76" s="98"/>
       <c r="BI76" s="4"/>
       <c r="BJ76" s="4"/>
       <c r="BK76" s="4"/>
@@ -7829,10 +7832,10 @@
       <c r="BA77" s="112"/>
       <c r="BB77" s="113"/>
       <c r="BC77" s="2"/>
-      <c r="BD77" s="96"/>
-      <c r="BE77" s="100"/>
-      <c r="BF77" s="101"/>
-      <c r="BG77" s="102"/>
+      <c r="BD77" s="95"/>
+      <c r="BE77" s="99"/>
+      <c r="BF77" s="100"/>
+      <c r="BG77" s="101"/>
       <c r="BI77" s="4"/>
       <c r="BJ77" s="4"/>
       <c r="BK77" s="4"/>
@@ -7907,10 +7910,10 @@
       <c r="BA78" s="6"/>
       <c r="BB78" s="6"/>
       <c r="BC78" s="2"/>
-      <c r="BD78" s="107"/>
-      <c r="BE78" s="104"/>
-      <c r="BF78" s="105"/>
-      <c r="BG78" s="106"/>
+      <c r="BD78" s="122"/>
+      <c r="BE78" s="96"/>
+      <c r="BF78" s="97"/>
+      <c r="BG78" s="98"/>
       <c r="BI78" s="4"/>
       <c r="BJ78" s="4"/>
       <c r="BK78" s="4"/>
@@ -7939,59 +7942,59 @@
       </c>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
-      <c r="H79" s="89" t="s">
+      <c r="H79" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="89"/>
+      <c r="I79" s="107"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
-      <c r="M79" s="89" t="s">
+      <c r="M79" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N79" s="89"/>
+      <c r="N79" s="107"/>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="9"/>
-      <c r="R79" s="89" t="s">
+      <c r="R79" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S79" s="89"/>
+      <c r="S79" s="107"/>
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
-      <c r="W79" s="89" t="s">
+      <c r="W79" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X79" s="89"/>
+      <c r="X79" s="107"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="89" t="s">
+      <c r="AB79" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC79" s="89"/>
+      <c r="AC79" s="107"/>
       <c r="AD79" s="9"/>
       <c r="AE79" s="9"/>
       <c r="AF79" s="9"/>
-      <c r="AG79" s="89" t="s">
+      <c r="AG79" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH79" s="89"/>
+      <c r="AH79" s="107"/>
       <c r="AI79" s="9"/>
       <c r="AJ79" s="9"/>
       <c r="AK79" s="9"/>
-      <c r="AL79" s="89" t="s">
+      <c r="AL79" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM79" s="89"/>
+      <c r="AM79" s="107"/>
       <c r="AN79" s="9"/>
       <c r="AO79" s="9"/>
       <c r="AP79" s="9"/>
-      <c r="AQ79" s="89" t="s">
+      <c r="AQ79" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR79" s="89"/>
+      <c r="AR79" s="107"/>
       <c r="AS79" s="9"/>
       <c r="AT79" s="9"/>
       <c r="AU79" s="9" t="s">
@@ -8005,10 +8008,10 @@
       <c r="BA79" s="6"/>
       <c r="BB79" s="6"/>
       <c r="BC79" s="2"/>
-      <c r="BD79" s="96"/>
-      <c r="BE79" s="100"/>
-      <c r="BF79" s="101"/>
-      <c r="BG79" s="102"/>
+      <c r="BD79" s="95"/>
+      <c r="BE79" s="99"/>
+      <c r="BF79" s="100"/>
+      <c r="BG79" s="101"/>
       <c r="BI79" s="4"/>
       <c r="BJ79" s="4"/>
       <c r="BK79" s="4"/>
@@ -8083,10 +8086,10 @@
       <c r="BA80" s="6"/>
       <c r="BB80" s="7"/>
       <c r="BC80" s="2"/>
-      <c r="BD80" s="103"/>
-      <c r="BE80" s="104"/>
-      <c r="BF80" s="105"/>
-      <c r="BG80" s="106"/>
+      <c r="BD80" s="94"/>
+      <c r="BE80" s="96"/>
+      <c r="BF80" s="97"/>
+      <c r="BG80" s="98"/>
       <c r="BI80" s="4"/>
       <c r="BJ80" s="4"/>
       <c r="BK80" s="4"/>
@@ -8157,18 +8160,18 @@
       <c r="AW81" s="6"/>
       <c r="AX81" s="6"/>
       <c r="AY81" s="27"/>
-      <c r="AZ81" s="92">
+      <c r="AZ81" s="85">
         <v>21</v>
       </c>
       <c r="BA81" s="2"/>
-      <c r="BB81" s="92">
+      <c r="BB81" s="85">
         <v>22</v>
       </c>
       <c r="BC81" s="2"/>
-      <c r="BD81" s="96"/>
-      <c r="BE81" s="100"/>
-      <c r="BF81" s="101"/>
-      <c r="BG81" s="102"/>
+      <c r="BD81" s="95"/>
+      <c r="BE81" s="99"/>
+      <c r="BF81" s="100"/>
+      <c r="BG81" s="101"/>
       <c r="BI81" s="4"/>
       <c r="BJ81" s="4"/>
       <c r="BK81" s="4"/>
@@ -8239,14 +8242,14 @@
       <c r="AW82" s="6"/>
       <c r="AX82" s="6"/>
       <c r="AY82" s="27"/>
-      <c r="AZ82" s="93"/>
+      <c r="AZ82" s="86"/>
       <c r="BA82" s="2"/>
-      <c r="BB82" s="93"/>
+      <c r="BB82" s="86"/>
       <c r="BC82" s="2"/>
-      <c r="BD82" s="107"/>
-      <c r="BE82" s="104"/>
-      <c r="BF82" s="105"/>
-      <c r="BG82" s="106"/>
+      <c r="BD82" s="122"/>
+      <c r="BE82" s="96"/>
+      <c r="BF82" s="97"/>
+      <c r="BG82" s="98"/>
       <c r="BI82" s="4"/>
       <c r="BJ82" s="4"/>
       <c r="BK82" s="4"/>
@@ -8317,14 +8320,14 @@
       <c r="AW83" s="6"/>
       <c r="AX83" s="6"/>
       <c r="AY83" s="27"/>
-      <c r="AZ83" s="93"/>
+      <c r="AZ83" s="86"/>
       <c r="BA83" s="2"/>
-      <c r="BB83" s="93"/>
+      <c r="BB83" s="86"/>
       <c r="BC83" s="2"/>
-      <c r="BD83" s="96"/>
-      <c r="BE83" s="100"/>
-      <c r="BF83" s="101"/>
-      <c r="BG83" s="102"/>
+      <c r="BD83" s="95"/>
+      <c r="BE83" s="99"/>
+      <c r="BF83" s="100"/>
+      <c r="BG83" s="101"/>
       <c r="BI83" s="4"/>
       <c r="BJ83" s="4"/>
       <c r="BK83" s="4"/>
@@ -8395,14 +8398,14 @@
       <c r="AW84" s="6"/>
       <c r="AX84" s="6"/>
       <c r="AY84" s="27"/>
-      <c r="AZ84" s="93"/>
+      <c r="AZ84" s="86"/>
       <c r="BA84" s="2"/>
-      <c r="BB84" s="93"/>
+      <c r="BB84" s="86"/>
       <c r="BC84" s="2"/>
-      <c r="BD84" s="103"/>
-      <c r="BE84" s="104"/>
-      <c r="BF84" s="105"/>
-      <c r="BG84" s="106"/>
+      <c r="BD84" s="94"/>
+      <c r="BE84" s="96"/>
+      <c r="BF84" s="97"/>
+      <c r="BG84" s="98"/>
       <c r="BI84" s="4"/>
       <c r="BJ84" s="4"/>
       <c r="BK84" s="4"/>
@@ -8473,14 +8476,14 @@
       <c r="AW85" s="6"/>
       <c r="AX85" s="6"/>
       <c r="AY85" s="27"/>
-      <c r="AZ85" s="93"/>
+      <c r="AZ85" s="86"/>
       <c r="BA85" s="2"/>
-      <c r="BB85" s="93"/>
+      <c r="BB85" s="86"/>
       <c r="BC85" s="2"/>
-      <c r="BD85" s="114"/>
-      <c r="BE85" s="115"/>
-      <c r="BF85" s="116"/>
-      <c r="BG85" s="117"/>
+      <c r="BD85" s="102"/>
+      <c r="BE85" s="103"/>
+      <c r="BF85" s="104"/>
+      <c r="BG85" s="105"/>
       <c r="BI85" s="4"/>
       <c r="BJ85" s="4"/>
       <c r="BK85" s="4"/>
@@ -8551,14 +8554,14 @@
       <c r="AW86" s="6"/>
       <c r="AX86" s="6"/>
       <c r="AY86" s="27"/>
-      <c r="AZ86" s="94"/>
+      <c r="AZ86" s="87"/>
       <c r="BA86" s="2"/>
-      <c r="BB86" s="93"/>
+      <c r="BB86" s="86"/>
       <c r="BC86" s="2"/>
-      <c r="BD86" s="118"/>
-      <c r="BE86" s="118"/>
-      <c r="BF86" s="118"/>
-      <c r="BG86" s="118"/>
+      <c r="BD86" s="106"/>
+      <c r="BE86" s="106"/>
+      <c r="BF86" s="106"/>
+      <c r="BG86" s="106"/>
       <c r="BI86" s="4"/>
       <c r="BJ86" s="4"/>
       <c r="BK86" s="4"/>
@@ -8631,12 +8634,12 @@
       <c r="AY87" s="27"/>
       <c r="AZ87" s="38"/>
       <c r="BA87" s="2"/>
-      <c r="BB87" s="93"/>
+      <c r="BB87" s="86"/>
       <c r="BC87" s="2"/>
-      <c r="BD87" s="118"/>
-      <c r="BE87" s="118"/>
-      <c r="BF87" s="118"/>
-      <c r="BG87" s="118"/>
+      <c r="BD87" s="106"/>
+      <c r="BE87" s="106"/>
+      <c r="BF87" s="106"/>
+      <c r="BG87" s="106"/>
       <c r="BI87" s="4"/>
       <c r="BJ87" s="4"/>
       <c r="BK87" s="4"/>
@@ -8709,18 +8712,18 @@
       <c r="AW88" s="6"/>
       <c r="AX88" s="6"/>
       <c r="AY88" s="27"/>
-      <c r="AZ88" s="92">
+      <c r="AZ88" s="85">
         <v>23</v>
       </c>
       <c r="BA88" s="2"/>
-      <c r="BB88" s="93"/>
+      <c r="BB88" s="86"/>
       <c r="BC88" s="2"/>
-      <c r="BD88" s="119" t="s">
+      <c r="BD88" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="BE88" s="98"/>
-      <c r="BF88" s="98"/>
-      <c r="BG88" s="99"/>
+      <c r="BE88" s="116"/>
+      <c r="BF88" s="116"/>
+      <c r="BG88" s="117"/>
       <c r="BI88" s="4"/>
       <c r="BJ88" s="4"/>
       <c r="BK88" s="4"/>
@@ -8791,14 +8794,14 @@
       <c r="AW89" s="6"/>
       <c r="AX89" s="6"/>
       <c r="AY89" s="27"/>
-      <c r="AZ89" s="93"/>
+      <c r="AZ89" s="86"/>
       <c r="BA89" s="2"/>
-      <c r="BB89" s="93"/>
+      <c r="BB89" s="86"/>
       <c r="BC89" s="2"/>
-      <c r="BD89" s="120"/>
-      <c r="BE89" s="118"/>
-      <c r="BF89" s="118"/>
-      <c r="BG89" s="121"/>
+      <c r="BD89" s="119"/>
+      <c r="BE89" s="106"/>
+      <c r="BF89" s="106"/>
+      <c r="BG89" s="120"/>
       <c r="BI89" s="4"/>
       <c r="BJ89" s="4"/>
       <c r="BK89" s="4"/>
@@ -8869,14 +8872,14 @@
       <c r="AW90" s="6"/>
       <c r="AX90" s="6"/>
       <c r="AY90" s="27"/>
-      <c r="AZ90" s="93"/>
+      <c r="AZ90" s="86"/>
       <c r="BA90" s="2"/>
-      <c r="BB90" s="93"/>
+      <c r="BB90" s="86"/>
       <c r="BC90" s="2"/>
-      <c r="BD90" s="120"/>
-      <c r="BE90" s="118"/>
-      <c r="BF90" s="118"/>
-      <c r="BG90" s="121"/>
+      <c r="BD90" s="119"/>
+      <c r="BE90" s="106"/>
+      <c r="BF90" s="106"/>
+      <c r="BG90" s="120"/>
       <c r="BI90" s="4"/>
       <c r="BJ90" s="4"/>
       <c r="BK90" s="4"/>
@@ -8947,14 +8950,14 @@
       <c r="AW91" s="6"/>
       <c r="AX91" s="6"/>
       <c r="AY91" s="27"/>
-      <c r="AZ91" s="93"/>
+      <c r="AZ91" s="86"/>
       <c r="BA91" s="2"/>
-      <c r="BB91" s="93"/>
+      <c r="BB91" s="86"/>
       <c r="BC91" s="2"/>
-      <c r="BD91" s="122"/>
-      <c r="BE91" s="116"/>
-      <c r="BF91" s="116"/>
-      <c r="BG91" s="117"/>
+      <c r="BD91" s="121"/>
+      <c r="BE91" s="104"/>
+      <c r="BF91" s="104"/>
+      <c r="BG91" s="105"/>
       <c r="BI91" s="4"/>
       <c r="BJ91" s="4"/>
       <c r="BK91" s="4"/>
@@ -9025,14 +9028,14 @@
       <c r="AW92" s="6"/>
       <c r="AX92" s="6"/>
       <c r="AY92" s="27"/>
-      <c r="AZ92" s="93"/>
+      <c r="AZ92" s="86"/>
       <c r="BA92" s="2"/>
-      <c r="BB92" s="93"/>
+      <c r="BB92" s="86"/>
       <c r="BC92" s="2"/>
-      <c r="BD92" s="95"/>
-      <c r="BE92" s="97"/>
-      <c r="BF92" s="98"/>
-      <c r="BG92" s="99"/>
+      <c r="BD92" s="114"/>
+      <c r="BE92" s="115"/>
+      <c r="BF92" s="116"/>
+      <c r="BG92" s="117"/>
       <c r="BI92" s="4"/>
       <c r="BJ92" s="4"/>
       <c r="BK92" s="4"/>
@@ -9103,14 +9106,14 @@
       <c r="AW93" s="6"/>
       <c r="AX93" s="6"/>
       <c r="AY93" s="27"/>
-      <c r="AZ93" s="94"/>
+      <c r="AZ93" s="87"/>
       <c r="BA93" s="2"/>
-      <c r="BB93" s="94"/>
+      <c r="BB93" s="87"/>
       <c r="BC93" s="2"/>
-      <c r="BD93" s="96"/>
-      <c r="BE93" s="100"/>
-      <c r="BF93" s="101"/>
-      <c r="BG93" s="102"/>
+      <c r="BD93" s="95"/>
+      <c r="BE93" s="99"/>
+      <c r="BF93" s="100"/>
+      <c r="BG93" s="101"/>
       <c r="BI93" s="4"/>
       <c r="BJ93" s="4"/>
       <c r="BK93" s="4"/>
@@ -9185,10 +9188,10 @@
       <c r="BA94" s="41"/>
       <c r="BB94" s="40"/>
       <c r="BC94" s="2"/>
-      <c r="BD94" s="103"/>
-      <c r="BE94" s="104"/>
-      <c r="BF94" s="105"/>
-      <c r="BG94" s="106"/>
+      <c r="BD94" s="94"/>
+      <c r="BE94" s="96"/>
+      <c r="BF94" s="97"/>
+      <c r="BG94" s="98"/>
       <c r="BI94" s="4"/>
       <c r="BJ94" s="4"/>
       <c r="BK94" s="4"/>
@@ -9263,10 +9266,10 @@
       <c r="BA95" s="6"/>
       <c r="BB95" s="6"/>
       <c r="BC95" s="2"/>
-      <c r="BD95" s="96"/>
-      <c r="BE95" s="100"/>
-      <c r="BF95" s="101"/>
-      <c r="BG95" s="102"/>
+      <c r="BD95" s="95"/>
+      <c r="BE95" s="99"/>
+      <c r="BF95" s="100"/>
+      <c r="BG95" s="101"/>
       <c r="BI95" s="4"/>
       <c r="BJ95" s="4"/>
       <c r="BK95" s="4"/>
@@ -9295,59 +9298,59 @@
       </c>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="89" t="s">
+      <c r="H96" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I96" s="89"/>
+      <c r="I96" s="107"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
-      <c r="M96" s="89" t="s">
+      <c r="M96" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N96" s="89"/>
+      <c r="N96" s="107"/>
       <c r="O96" s="9"/>
       <c r="P96" s="9"/>
       <c r="Q96" s="9"/>
-      <c r="R96" s="89" t="s">
+      <c r="R96" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S96" s="89"/>
+      <c r="S96" s="107"/>
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
-      <c r="W96" s="89" t="s">
+      <c r="W96" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X96" s="89"/>
+      <c r="X96" s="107"/>
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
-      <c r="AB96" s="89" t="s">
+      <c r="AB96" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC96" s="89"/>
+      <c r="AC96" s="107"/>
       <c r="AD96" s="9"/>
       <c r="AE96" s="9"/>
       <c r="AF96" s="9"/>
-      <c r="AG96" s="89" t="s">
+      <c r="AG96" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH96" s="89"/>
+      <c r="AH96" s="107"/>
       <c r="AI96" s="9"/>
       <c r="AJ96" s="9"/>
       <c r="AK96" s="9"/>
-      <c r="AL96" s="89" t="s">
+      <c r="AL96" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM96" s="89"/>
+      <c r="AM96" s="107"/>
       <c r="AN96" s="9"/>
       <c r="AO96" s="9"/>
       <c r="AP96" s="9"/>
-      <c r="AQ96" s="89" t="s">
+      <c r="AQ96" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR96" s="89"/>
+      <c r="AR96" s="107"/>
       <c r="AS96" s="9"/>
       <c r="AT96" s="9"/>
       <c r="AU96" s="9" t="s">
@@ -9361,10 +9364,10 @@
       <c r="BA96" s="6"/>
       <c r="BB96" s="6"/>
       <c r="BC96" s="2"/>
-      <c r="BD96" s="103"/>
-      <c r="BE96" s="104"/>
-      <c r="BF96" s="105"/>
-      <c r="BG96" s="106"/>
+      <c r="BD96" s="94"/>
+      <c r="BE96" s="96"/>
+      <c r="BF96" s="97"/>
+      <c r="BG96" s="98"/>
       <c r="BI96" s="4"/>
       <c r="BJ96" s="4"/>
       <c r="BK96" s="4"/>
@@ -9439,10 +9442,10 @@
       <c r="BA97" s="6"/>
       <c r="BB97" s="7"/>
       <c r="BC97" s="2"/>
-      <c r="BD97" s="96"/>
-      <c r="BE97" s="100"/>
-      <c r="BF97" s="101"/>
-      <c r="BG97" s="102"/>
+      <c r="BD97" s="95"/>
+      <c r="BE97" s="99"/>
+      <c r="BF97" s="100"/>
+      <c r="BG97" s="101"/>
       <c r="BI97" s="4"/>
       <c r="BJ97" s="4"/>
       <c r="BK97" s="4"/>
@@ -9513,18 +9516,18 @@
       <c r="AW98" s="6"/>
       <c r="AX98" s="6"/>
       <c r="AY98" s="27"/>
-      <c r="AZ98" s="92">
+      <c r="AZ98" s="85">
         <v>25</v>
       </c>
       <c r="BA98" s="2"/>
-      <c r="BB98" s="92">
+      <c r="BB98" s="85">
         <v>26</v>
       </c>
       <c r="BC98" s="2"/>
-      <c r="BD98" s="103"/>
-      <c r="BE98" s="104"/>
-      <c r="BF98" s="105"/>
-      <c r="BG98" s="106"/>
+      <c r="BD98" s="94"/>
+      <c r="BE98" s="96"/>
+      <c r="BF98" s="97"/>
+      <c r="BG98" s="98"/>
       <c r="BI98" s="4"/>
       <c r="BJ98" s="4"/>
       <c r="BK98" s="4"/>
@@ -9595,14 +9598,14 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="27"/>
-      <c r="AZ99" s="93"/>
+      <c r="AZ99" s="86"/>
       <c r="BA99" s="2"/>
-      <c r="BB99" s="93"/>
+      <c r="BB99" s="86"/>
       <c r="BC99" s="2"/>
-      <c r="BD99" s="96"/>
-      <c r="BE99" s="100"/>
-      <c r="BF99" s="101"/>
-      <c r="BG99" s="102"/>
+      <c r="BD99" s="95"/>
+      <c r="BE99" s="99"/>
+      <c r="BF99" s="100"/>
+      <c r="BG99" s="101"/>
       <c r="BI99" s="4"/>
       <c r="BJ99" s="4"/>
       <c r="BK99" s="4"/>
@@ -9673,14 +9676,14 @@
       <c r="AW100" s="6"/>
       <c r="AX100" s="6"/>
       <c r="AY100" s="27"/>
-      <c r="AZ100" s="93"/>
+      <c r="AZ100" s="86"/>
       <c r="BA100" s="2"/>
-      <c r="BB100" s="93"/>
+      <c r="BB100" s="86"/>
       <c r="BC100" s="2"/>
-      <c r="BD100" s="103"/>
-      <c r="BE100" s="104"/>
-      <c r="BF100" s="105"/>
-      <c r="BG100" s="106"/>
+      <c r="BD100" s="94"/>
+      <c r="BE100" s="96"/>
+      <c r="BF100" s="97"/>
+      <c r="BG100" s="98"/>
       <c r="BI100" s="4"/>
       <c r="BJ100" s="4"/>
       <c r="BK100" s="4"/>
@@ -9751,14 +9754,14 @@
       <c r="AW101" s="6"/>
       <c r="AX101" s="6"/>
       <c r="AY101" s="27"/>
-      <c r="AZ101" s="93"/>
+      <c r="AZ101" s="86"/>
       <c r="BA101" s="2"/>
-      <c r="BB101" s="93"/>
+      <c r="BB101" s="86"/>
       <c r="BC101" s="2"/>
-      <c r="BD101" s="96"/>
-      <c r="BE101" s="100"/>
-      <c r="BF101" s="101"/>
-      <c r="BG101" s="102"/>
+      <c r="BD101" s="95"/>
+      <c r="BE101" s="99"/>
+      <c r="BF101" s="100"/>
+      <c r="BG101" s="101"/>
       <c r="BI101" s="4"/>
       <c r="BJ101" s="4"/>
       <c r="BK101" s="4"/>
@@ -9829,14 +9832,14 @@
       <c r="AW102" s="6"/>
       <c r="AX102" s="6"/>
       <c r="AY102" s="27"/>
-      <c r="AZ102" s="93"/>
+      <c r="AZ102" s="86"/>
       <c r="BA102" s="2"/>
-      <c r="BB102" s="93"/>
+      <c r="BB102" s="86"/>
       <c r="BC102" s="2"/>
-      <c r="BD102" s="103"/>
-      <c r="BE102" s="104"/>
-      <c r="BF102" s="105"/>
-      <c r="BG102" s="106"/>
+      <c r="BD102" s="94"/>
+      <c r="BE102" s="96"/>
+      <c r="BF102" s="97"/>
+      <c r="BG102" s="98"/>
       <c r="BI102" s="4"/>
       <c r="BJ102" s="4"/>
       <c r="BK102" s="4"/>
@@ -9907,14 +9910,14 @@
       <c r="AW103" s="6"/>
       <c r="AX103" s="6"/>
       <c r="AY103" s="27"/>
-      <c r="AZ103" s="94"/>
+      <c r="AZ103" s="87"/>
       <c r="BA103" s="2"/>
-      <c r="BB103" s="93"/>
+      <c r="BB103" s="86"/>
       <c r="BC103" s="2"/>
-      <c r="BD103" s="96"/>
-      <c r="BE103" s="100"/>
-      <c r="BF103" s="101"/>
-      <c r="BG103" s="102"/>
+      <c r="BD103" s="95"/>
+      <c r="BE103" s="99"/>
+      <c r="BF103" s="100"/>
+      <c r="BG103" s="101"/>
       <c r="BI103" s="4"/>
       <c r="BJ103" s="4"/>
       <c r="BK103" s="4"/>
@@ -9987,12 +9990,12 @@
       <c r="AY104" s="27"/>
       <c r="AZ104" s="38"/>
       <c r="BA104" s="2"/>
-      <c r="BB104" s="93"/>
+      <c r="BB104" s="86"/>
       <c r="BC104" s="2"/>
-      <c r="BD104" s="103"/>
-      <c r="BE104" s="104"/>
-      <c r="BF104" s="105"/>
-      <c r="BG104" s="106"/>
+      <c r="BD104" s="94"/>
+      <c r="BE104" s="96"/>
+      <c r="BF104" s="97"/>
+      <c r="BG104" s="98"/>
       <c r="BI104" s="4"/>
       <c r="BJ104" s="4"/>
       <c r="BK104" s="4"/>
@@ -10065,16 +10068,16 @@
       <c r="AW105" s="6"/>
       <c r="AX105" s="6"/>
       <c r="AY105" s="27"/>
-      <c r="AZ105" s="92">
+      <c r="AZ105" s="85">
         <v>27</v>
       </c>
       <c r="BA105" s="2"/>
-      <c r="BB105" s="93"/>
+      <c r="BB105" s="86"/>
       <c r="BC105" s="2"/>
-      <c r="BD105" s="96"/>
-      <c r="BE105" s="100"/>
-      <c r="BF105" s="101"/>
-      <c r="BG105" s="102"/>
+      <c r="BD105" s="95"/>
+      <c r="BE105" s="99"/>
+      <c r="BF105" s="100"/>
+      <c r="BG105" s="101"/>
       <c r="BI105" s="4"/>
       <c r="BJ105" s="4"/>
       <c r="BK105" s="4"/>
@@ -10145,14 +10148,14 @@
       <c r="AW106" s="6"/>
       <c r="AX106" s="6"/>
       <c r="AY106" s="27"/>
-      <c r="AZ106" s="93"/>
+      <c r="AZ106" s="86"/>
       <c r="BA106" s="2"/>
-      <c r="BB106" s="93"/>
+      <c r="BB106" s="86"/>
       <c r="BC106" s="2"/>
-      <c r="BD106" s="103"/>
-      <c r="BE106" s="104"/>
-      <c r="BF106" s="105"/>
-      <c r="BG106" s="106"/>
+      <c r="BD106" s="94"/>
+      <c r="BE106" s="96"/>
+      <c r="BF106" s="97"/>
+      <c r="BG106" s="98"/>
       <c r="BI106" s="4"/>
       <c r="BJ106" s="4"/>
       <c r="BK106" s="4"/>
@@ -10223,14 +10226,14 @@
       <c r="AW107" s="6"/>
       <c r="AX107" s="6"/>
       <c r="AY107" s="27"/>
-      <c r="AZ107" s="93"/>
+      <c r="AZ107" s="86"/>
       <c r="BA107" s="2"/>
-      <c r="BB107" s="93"/>
+      <c r="BB107" s="86"/>
       <c r="BC107" s="2"/>
-      <c r="BD107" s="96"/>
-      <c r="BE107" s="100"/>
-      <c r="BF107" s="101"/>
-      <c r="BG107" s="102"/>
+      <c r="BD107" s="95"/>
+      <c r="BE107" s="99"/>
+      <c r="BF107" s="100"/>
+      <c r="BG107" s="101"/>
       <c r="BI107" s="4"/>
       <c r="BJ107" s="4"/>
       <c r="BK107" s="4"/>
@@ -10301,14 +10304,14 @@
       <c r="AW108" s="6"/>
       <c r="AX108" s="2"/>
       <c r="AY108" s="32"/>
-      <c r="AZ108" s="93"/>
+      <c r="AZ108" s="86"/>
       <c r="BA108" s="2"/>
-      <c r="BB108" s="93"/>
+      <c r="BB108" s="86"/>
       <c r="BC108" s="2"/>
-      <c r="BD108" s="103"/>
-      <c r="BE108" s="104"/>
-      <c r="BF108" s="105"/>
-      <c r="BG108" s="106"/>
+      <c r="BD108" s="94"/>
+      <c r="BE108" s="96"/>
+      <c r="BF108" s="97"/>
+      <c r="BG108" s="98"/>
       <c r="BI108" s="4"/>
       <c r="BJ108" s="4"/>
       <c r="BK108" s="4"/>
@@ -10379,14 +10382,14 @@
       <c r="AW109" s="6"/>
       <c r="AX109" s="2"/>
       <c r="AY109" s="32"/>
-      <c r="AZ109" s="93"/>
+      <c r="AZ109" s="86"/>
       <c r="BA109" s="2"/>
-      <c r="BB109" s="93"/>
+      <c r="BB109" s="86"/>
       <c r="BC109" s="2"/>
-      <c r="BD109" s="96"/>
-      <c r="BE109" s="100"/>
-      <c r="BF109" s="101"/>
-      <c r="BG109" s="102"/>
+      <c r="BD109" s="95"/>
+      <c r="BE109" s="99"/>
+      <c r="BF109" s="100"/>
+      <c r="BG109" s="101"/>
       <c r="BI109" s="4"/>
       <c r="BJ109" s="4"/>
       <c r="BK109" s="4"/>
@@ -10457,14 +10460,14 @@
       <c r="AW110" s="6"/>
       <c r="AX110" s="2"/>
       <c r="AY110" s="27"/>
-      <c r="AZ110" s="94"/>
+      <c r="AZ110" s="87"/>
       <c r="BA110" s="2"/>
-      <c r="BB110" s="94"/>
+      <c r="BB110" s="87"/>
       <c r="BC110" s="2"/>
-      <c r="BD110" s="103"/>
-      <c r="BE110" s="104"/>
-      <c r="BF110" s="105"/>
-      <c r="BG110" s="106"/>
+      <c r="BD110" s="94"/>
+      <c r="BE110" s="96"/>
+      <c r="BF110" s="97"/>
+      <c r="BG110" s="98"/>
       <c r="BI110" s="4"/>
       <c r="BJ110" s="4"/>
       <c r="BK110" s="4"/>
@@ -10539,10 +10542,10 @@
       <c r="BA111" s="2"/>
       <c r="BB111" s="40"/>
       <c r="BC111" s="2"/>
-      <c r="BD111" s="96"/>
-      <c r="BE111" s="100"/>
-      <c r="BF111" s="101"/>
-      <c r="BG111" s="102"/>
+      <c r="BD111" s="95"/>
+      <c r="BE111" s="99"/>
+      <c r="BF111" s="100"/>
+      <c r="BG111" s="101"/>
       <c r="BI111" s="4"/>
       <c r="BJ111" s="4"/>
       <c r="BK111" s="4"/>
@@ -10617,10 +10620,10 @@
       <c r="BA112" s="2"/>
       <c r="BB112" s="40"/>
       <c r="BC112" s="2"/>
-      <c r="BD112" s="103"/>
-      <c r="BE112" s="104"/>
-      <c r="BF112" s="105"/>
-      <c r="BG112" s="106"/>
+      <c r="BD112" s="94"/>
+      <c r="BE112" s="96"/>
+      <c r="BF112" s="97"/>
+      <c r="BG112" s="98"/>
       <c r="BI112" s="4"/>
       <c r="BJ112" s="4"/>
       <c r="BK112" s="4"/>
@@ -10649,59 +10652,59 @@
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
-      <c r="H113" s="89" t="s">
+      <c r="H113" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I113" s="89"/>
+      <c r="I113" s="107"/>
       <c r="J113" s="10"/>
       <c r="K113" s="10"/>
       <c r="L113" s="10"/>
-      <c r="M113" s="89" t="s">
+      <c r="M113" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N113" s="89"/>
+      <c r="N113" s="107"/>
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
       <c r="Q113" s="10"/>
-      <c r="R113" s="89" t="s">
+      <c r="R113" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S113" s="89"/>
+      <c r="S113" s="107"/>
       <c r="T113" s="10"/>
       <c r="U113" s="10"/>
       <c r="V113" s="10"/>
-      <c r="W113" s="89" t="s">
+      <c r="W113" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X113" s="89"/>
+      <c r="X113" s="107"/>
       <c r="Y113" s="10"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="10"/>
-      <c r="AB113" s="89" t="s">
+      <c r="AB113" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC113" s="89"/>
+      <c r="AC113" s="107"/>
       <c r="AD113" s="10"/>
       <c r="AE113" s="10"/>
       <c r="AF113" s="10"/>
-      <c r="AG113" s="89" t="s">
+      <c r="AG113" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH113" s="89"/>
+      <c r="AH113" s="107"/>
       <c r="AI113" s="10"/>
       <c r="AJ113" s="10"/>
       <c r="AK113" s="10"/>
-      <c r="AL113" s="89" t="s">
+      <c r="AL113" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM113" s="89"/>
+      <c r="AM113" s="107"/>
       <c r="AN113" s="10"/>
       <c r="AO113" s="10"/>
       <c r="AP113" s="10"/>
-      <c r="AQ113" s="89" t="s">
+      <c r="AQ113" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR113" s="89"/>
+      <c r="AR113" s="107"/>
       <c r="AS113" s="10"/>
       <c r="AT113" s="10"/>
       <c r="AU113" s="10" t="s">
@@ -10715,10 +10718,10 @@
       <c r="BA113" s="6"/>
       <c r="BB113" s="6"/>
       <c r="BC113" s="2"/>
-      <c r="BD113" s="96"/>
-      <c r="BE113" s="100"/>
-      <c r="BF113" s="101"/>
-      <c r="BG113" s="102"/>
+      <c r="BD113" s="95"/>
+      <c r="BE113" s="99"/>
+      <c r="BF113" s="100"/>
+      <c r="BG113" s="101"/>
       <c r="BI113" s="4"/>
       <c r="BJ113" s="4"/>
       <c r="BK113" s="4"/>
@@ -10793,10 +10796,10 @@
       <c r="BA114" s="6"/>
       <c r="BB114" s="7"/>
       <c r="BC114" s="2"/>
-      <c r="BD114" s="103"/>
-      <c r="BE114" s="104"/>
-      <c r="BF114" s="105"/>
-      <c r="BG114" s="106"/>
+      <c r="BD114" s="94"/>
+      <c r="BE114" s="96"/>
+      <c r="BF114" s="97"/>
+      <c r="BG114" s="98"/>
       <c r="BI114" s="4"/>
       <c r="BJ114" s="4"/>
       <c r="BK114" s="4"/>
@@ -10867,18 +10870,18 @@
       <c r="AW115" s="6"/>
       <c r="AX115" s="6"/>
       <c r="AY115" s="27"/>
-      <c r="AZ115" s="92">
+      <c r="AZ115" s="85">
         <v>29</v>
       </c>
       <c r="BA115" s="2"/>
-      <c r="BB115" s="92">
+      <c r="BB115" s="85">
         <v>30</v>
       </c>
       <c r="BC115" s="2"/>
-      <c r="BD115" s="96"/>
-      <c r="BE115" s="100"/>
-      <c r="BF115" s="101"/>
-      <c r="BG115" s="102"/>
+      <c r="BD115" s="95"/>
+      <c r="BE115" s="99"/>
+      <c r="BF115" s="100"/>
+      <c r="BG115" s="101"/>
       <c r="BI115" s="4"/>
       <c r="BJ115" s="4"/>
       <c r="BK115" s="4"/>
@@ -10949,14 +10952,14 @@
       <c r="AW116" s="6"/>
       <c r="AX116" s="6"/>
       <c r="AY116" s="27"/>
-      <c r="AZ116" s="93"/>
+      <c r="AZ116" s="86"/>
       <c r="BA116" s="2"/>
-      <c r="BB116" s="93"/>
+      <c r="BB116" s="86"/>
       <c r="BC116" s="1"/>
-      <c r="BD116" s="103"/>
-      <c r="BE116" s="104"/>
-      <c r="BF116" s="105"/>
-      <c r="BG116" s="106"/>
+      <c r="BD116" s="94"/>
+      <c r="BE116" s="96"/>
+      <c r="BF116" s="97"/>
+      <c r="BG116" s="98"/>
       <c r="BI116" s="4"/>
       <c r="BJ116" s="4"/>
       <c r="BK116" s="4"/>
@@ -11027,14 +11030,14 @@
       <c r="AW117" s="6"/>
       <c r="AX117" s="6"/>
       <c r="AY117" s="27"/>
-      <c r="AZ117" s="93"/>
+      <c r="AZ117" s="86"/>
       <c r="BA117" s="2"/>
-      <c r="BB117" s="93"/>
+      <c r="BB117" s="86"/>
       <c r="BC117" s="2"/>
-      <c r="BD117" s="96"/>
-      <c r="BE117" s="100"/>
-      <c r="BF117" s="101"/>
-      <c r="BG117" s="102"/>
+      <c r="BD117" s="95"/>
+      <c r="BE117" s="99"/>
+      <c r="BF117" s="100"/>
+      <c r="BG117" s="101"/>
       <c r="BI117" s="4"/>
       <c r="BJ117" s="4"/>
       <c r="BK117" s="4"/>
@@ -11105,14 +11108,14 @@
       <c r="AW118" s="6"/>
       <c r="AX118" s="6"/>
       <c r="AY118" s="27"/>
-      <c r="AZ118" s="93"/>
+      <c r="AZ118" s="86"/>
       <c r="BA118" s="2"/>
-      <c r="BB118" s="93"/>
+      <c r="BB118" s="86"/>
       <c r="BC118" s="2"/>
-      <c r="BD118" s="103"/>
-      <c r="BE118" s="104"/>
-      <c r="BF118" s="105"/>
-      <c r="BG118" s="106"/>
+      <c r="BD118" s="94"/>
+      <c r="BE118" s="96"/>
+      <c r="BF118" s="97"/>
+      <c r="BG118" s="98"/>
       <c r="BI118" s="4"/>
       <c r="BJ118" s="4"/>
       <c r="BK118" s="4"/>
@@ -11183,14 +11186,14 @@
       <c r="AW119" s="6"/>
       <c r="AX119" s="6"/>
       <c r="AY119" s="27"/>
-      <c r="AZ119" s="93"/>
+      <c r="AZ119" s="86"/>
       <c r="BA119" s="2"/>
-      <c r="BB119" s="93"/>
+      <c r="BB119" s="86"/>
       <c r="BC119" s="2"/>
-      <c r="BD119" s="96"/>
-      <c r="BE119" s="100"/>
-      <c r="BF119" s="101"/>
-      <c r="BG119" s="102"/>
+      <c r="BD119" s="95"/>
+      <c r="BE119" s="99"/>
+      <c r="BF119" s="100"/>
+      <c r="BG119" s="101"/>
       <c r="BI119" s="4"/>
       <c r="BJ119" s="4"/>
       <c r="BK119" s="4"/>
@@ -11261,14 +11264,14 @@
       <c r="AW120" s="6"/>
       <c r="AX120" s="6"/>
       <c r="AY120" s="27"/>
-      <c r="AZ120" s="94"/>
+      <c r="AZ120" s="87"/>
       <c r="BA120" s="2"/>
-      <c r="BB120" s="93"/>
+      <c r="BB120" s="86"/>
       <c r="BC120" s="2"/>
-      <c r="BD120" s="103"/>
-      <c r="BE120" s="104"/>
-      <c r="BF120" s="105"/>
-      <c r="BG120" s="106"/>
+      <c r="BD120" s="94"/>
+      <c r="BE120" s="96"/>
+      <c r="BF120" s="97"/>
+      <c r="BG120" s="98"/>
       <c r="BI120" s="4"/>
       <c r="BJ120" s="4"/>
       <c r="BK120" s="4"/>
@@ -11341,12 +11344,12 @@
       <c r="AY121" s="27"/>
       <c r="AZ121" s="38"/>
       <c r="BA121" s="2"/>
-      <c r="BB121" s="93"/>
+      <c r="BB121" s="86"/>
       <c r="BC121" s="2"/>
-      <c r="BD121" s="96"/>
-      <c r="BE121" s="100"/>
-      <c r="BF121" s="101"/>
-      <c r="BG121" s="102"/>
+      <c r="BD121" s="95"/>
+      <c r="BE121" s="99"/>
+      <c r="BF121" s="100"/>
+      <c r="BG121" s="101"/>
       <c r="BI121" s="4"/>
       <c r="BJ121" s="4"/>
       <c r="BK121" s="4"/>
@@ -11419,16 +11422,16 @@
       <c r="AW122" s="6"/>
       <c r="AX122" s="6"/>
       <c r="AY122" s="27"/>
-      <c r="AZ122" s="92">
+      <c r="AZ122" s="85">
         <v>31</v>
       </c>
       <c r="BA122" s="2"/>
-      <c r="BB122" s="93"/>
+      <c r="BB122" s="86"/>
       <c r="BC122" s="2"/>
-      <c r="BD122" s="103"/>
-      <c r="BE122" s="104"/>
-      <c r="BF122" s="105"/>
-      <c r="BG122" s="106"/>
+      <c r="BD122" s="94"/>
+      <c r="BE122" s="96"/>
+      <c r="BF122" s="97"/>
+      <c r="BG122" s="98"/>
       <c r="BI122" s="4"/>
       <c r="BJ122" s="4"/>
       <c r="BK122" s="4"/>
@@ -11499,14 +11502,14 @@
       <c r="AW123" s="6"/>
       <c r="AX123" s="6"/>
       <c r="AY123" s="27"/>
-      <c r="AZ123" s="93"/>
+      <c r="AZ123" s="86"/>
       <c r="BA123" s="2"/>
-      <c r="BB123" s="93"/>
+      <c r="BB123" s="86"/>
       <c r="BC123" s="2"/>
-      <c r="BD123" s="96"/>
-      <c r="BE123" s="100"/>
-      <c r="BF123" s="101"/>
-      <c r="BG123" s="102"/>
+      <c r="BD123" s="95"/>
+      <c r="BE123" s="99"/>
+      <c r="BF123" s="100"/>
+      <c r="BG123" s="101"/>
       <c r="BI123" s="4"/>
       <c r="BJ123" s="4"/>
       <c r="BK123" s="4"/>
@@ -11577,14 +11580,14 @@
       <c r="AW124" s="6"/>
       <c r="AX124" s="6"/>
       <c r="AY124" s="27"/>
-      <c r="AZ124" s="93"/>
+      <c r="AZ124" s="86"/>
       <c r="BA124" s="2"/>
-      <c r="BB124" s="93"/>
+      <c r="BB124" s="86"/>
       <c r="BC124" s="2"/>
-      <c r="BD124" s="103"/>
-      <c r="BE124" s="104"/>
-      <c r="BF124" s="105"/>
-      <c r="BG124" s="106"/>
+      <c r="BD124" s="94"/>
+      <c r="BE124" s="96"/>
+      <c r="BF124" s="97"/>
+      <c r="BG124" s="98"/>
       <c r="BI124" s="4"/>
       <c r="BJ124" s="4"/>
       <c r="BK124" s="4"/>
@@ -11655,14 +11658,14 @@
       <c r="AW125" s="6"/>
       <c r="AX125" s="6"/>
       <c r="AY125" s="27"/>
-      <c r="AZ125" s="93"/>
+      <c r="AZ125" s="86"/>
       <c r="BA125" s="2"/>
-      <c r="BB125" s="93"/>
+      <c r="BB125" s="86"/>
       <c r="BC125" s="2"/>
-      <c r="BD125" s="96"/>
-      <c r="BE125" s="100"/>
-      <c r="BF125" s="101"/>
-      <c r="BG125" s="102"/>
+      <c r="BD125" s="95"/>
+      <c r="BE125" s="99"/>
+      <c r="BF125" s="100"/>
+      <c r="BG125" s="101"/>
       <c r="BI125" s="4"/>
       <c r="BJ125" s="4"/>
       <c r="BK125" s="4"/>
@@ -11733,14 +11736,14 @@
       <c r="AW126" s="6"/>
       <c r="AX126" s="6"/>
       <c r="AY126" s="27"/>
-      <c r="AZ126" s="93"/>
+      <c r="AZ126" s="86"/>
       <c r="BA126" s="2"/>
-      <c r="BB126" s="93"/>
+      <c r="BB126" s="86"/>
       <c r="BC126" s="2"/>
-      <c r="BD126" s="103"/>
-      <c r="BE126" s="104"/>
-      <c r="BF126" s="105"/>
-      <c r="BG126" s="106"/>
+      <c r="BD126" s="94"/>
+      <c r="BE126" s="96"/>
+      <c r="BF126" s="97"/>
+      <c r="BG126" s="98"/>
       <c r="BI126" s="4"/>
       <c r="BJ126" s="4"/>
       <c r="BK126" s="4"/>
@@ -11811,14 +11814,14 @@
       <c r="AW127" s="6"/>
       <c r="AX127" s="6"/>
       <c r="AY127" s="27"/>
-      <c r="AZ127" s="94"/>
+      <c r="AZ127" s="87"/>
       <c r="BA127" s="2"/>
-      <c r="BB127" s="94"/>
+      <c r="BB127" s="87"/>
       <c r="BC127" s="2"/>
-      <c r="BD127" s="96"/>
-      <c r="BE127" s="100"/>
-      <c r="BF127" s="101"/>
-      <c r="BG127" s="102"/>
+      <c r="BD127" s="95"/>
+      <c r="BE127" s="99"/>
+      <c r="BF127" s="100"/>
+      <c r="BG127" s="101"/>
       <c r="BI127" s="4"/>
       <c r="BJ127" s="4"/>
       <c r="BK127" s="4"/>
@@ -11893,10 +11896,10 @@
       <c r="BA128" s="41"/>
       <c r="BB128" s="40"/>
       <c r="BC128" s="2"/>
-      <c r="BD128" s="103"/>
-      <c r="BE128" s="104"/>
-      <c r="BF128" s="105"/>
-      <c r="BG128" s="106"/>
+      <c r="BD128" s="94"/>
+      <c r="BE128" s="96"/>
+      <c r="BF128" s="97"/>
+      <c r="BG128" s="98"/>
       <c r="BI128" s="4"/>
       <c r="BJ128" s="4"/>
       <c r="BK128" s="4"/>
@@ -11971,10 +11974,10 @@
       <c r="BA129" s="6"/>
       <c r="BB129" s="6"/>
       <c r="BC129" s="2"/>
-      <c r="BD129" s="96"/>
-      <c r="BE129" s="100"/>
-      <c r="BF129" s="101"/>
-      <c r="BG129" s="102"/>
+      <c r="BD129" s="95"/>
+      <c r="BE129" s="99"/>
+      <c r="BF129" s="100"/>
+      <c r="BG129" s="101"/>
       <c r="BI129" s="4"/>
       <c r="BJ129" s="4"/>
       <c r="BK129" s="4"/>
@@ -12003,59 +12006,59 @@
       </c>
       <c r="F130" s="9"/>
       <c r="G130" s="9"/>
-      <c r="H130" s="89" t="s">
+      <c r="H130" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I130" s="89"/>
+      <c r="I130" s="107"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
-      <c r="M130" s="89" t="s">
+      <c r="M130" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N130" s="89"/>
+      <c r="N130" s="107"/>
       <c r="O130" s="9"/>
       <c r="P130" s="9"/>
       <c r="Q130" s="9"/>
-      <c r="R130" s="89" t="s">
+      <c r="R130" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S130" s="89"/>
+      <c r="S130" s="107"/>
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
-      <c r="W130" s="89" t="s">
+      <c r="W130" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X130" s="89"/>
+      <c r="X130" s="107"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
-      <c r="AB130" s="89" t="s">
+      <c r="AB130" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC130" s="89"/>
+      <c r="AC130" s="107"/>
       <c r="AD130" s="9"/>
       <c r="AE130" s="9"/>
       <c r="AF130" s="9"/>
-      <c r="AG130" s="89" t="s">
+      <c r="AG130" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH130" s="89"/>
+      <c r="AH130" s="107"/>
       <c r="AI130" s="9"/>
       <c r="AJ130" s="9"/>
       <c r="AK130" s="9"/>
-      <c r="AL130" s="89" t="s">
+      <c r="AL130" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM130" s="89"/>
+      <c r="AM130" s="107"/>
       <c r="AN130" s="9"/>
       <c r="AO130" s="9"/>
       <c r="AP130" s="9"/>
-      <c r="AQ130" s="89" t="s">
+      <c r="AQ130" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR130" s="89"/>
+      <c r="AR130" s="107"/>
       <c r="AS130" s="9"/>
       <c r="AT130" s="9"/>
       <c r="AU130" s="9" t="s">
@@ -12069,10 +12072,10 @@
       <c r="BA130" s="6"/>
       <c r="BB130" s="6"/>
       <c r="BC130" s="2"/>
-      <c r="BD130" s="103"/>
-      <c r="BE130" s="104"/>
-      <c r="BF130" s="105"/>
-      <c r="BG130" s="106"/>
+      <c r="BD130" s="94"/>
+      <c r="BE130" s="96"/>
+      <c r="BF130" s="97"/>
+      <c r="BG130" s="98"/>
       <c r="BI130" s="4"/>
       <c r="BJ130" s="4"/>
       <c r="BK130" s="4"/>
@@ -12147,10 +12150,10 @@
       <c r="BA131" s="6"/>
       <c r="BB131" s="7"/>
       <c r="BC131" s="2"/>
-      <c r="BD131" s="96"/>
-      <c r="BE131" s="100"/>
-      <c r="BF131" s="101"/>
-      <c r="BG131" s="102"/>
+      <c r="BD131" s="95"/>
+      <c r="BE131" s="99"/>
+      <c r="BF131" s="100"/>
+      <c r="BG131" s="101"/>
       <c r="BI131" s="4"/>
       <c r="BJ131" s="4"/>
       <c r="BK131" s="4"/>
@@ -12221,18 +12224,18 @@
       <c r="AW132" s="6"/>
       <c r="AX132" s="6"/>
       <c r="AY132" s="27"/>
-      <c r="AZ132" s="92">
+      <c r="AZ132" s="85">
         <v>33</v>
       </c>
       <c r="BA132" s="2"/>
-      <c r="BB132" s="92">
+      <c r="BB132" s="85">
         <v>34</v>
       </c>
       <c r="BC132" s="2"/>
-      <c r="BD132" s="103"/>
-      <c r="BE132" s="104"/>
-      <c r="BF132" s="105"/>
-      <c r="BG132" s="106"/>
+      <c r="BD132" s="94"/>
+      <c r="BE132" s="96"/>
+      <c r="BF132" s="97"/>
+      <c r="BG132" s="98"/>
       <c r="BI132" s="4"/>
       <c r="BJ132" s="4"/>
       <c r="BK132" s="4"/>
@@ -12303,14 +12306,14 @@
       <c r="AW133" s="6"/>
       <c r="AX133" s="6"/>
       <c r="AY133" s="27"/>
-      <c r="AZ133" s="93"/>
+      <c r="AZ133" s="86"/>
       <c r="BA133" s="2"/>
-      <c r="BB133" s="93"/>
+      <c r="BB133" s="86"/>
       <c r="BC133" s="2"/>
-      <c r="BD133" s="96"/>
-      <c r="BE133" s="100"/>
-      <c r="BF133" s="101"/>
-      <c r="BG133" s="102"/>
+      <c r="BD133" s="95"/>
+      <c r="BE133" s="99"/>
+      <c r="BF133" s="100"/>
+      <c r="BG133" s="101"/>
       <c r="BI133" s="4"/>
       <c r="BJ133" s="4"/>
       <c r="BK133" s="4"/>
@@ -12381,14 +12384,14 @@
       <c r="AW134" s="6"/>
       <c r="AX134" s="6"/>
       <c r="AY134" s="27"/>
-      <c r="AZ134" s="93"/>
+      <c r="AZ134" s="86"/>
       <c r="BA134" s="2"/>
-      <c r="BB134" s="93"/>
+      <c r="BB134" s="86"/>
       <c r="BC134" s="2"/>
-      <c r="BD134" s="103"/>
-      <c r="BE134" s="104"/>
-      <c r="BF134" s="105"/>
-      <c r="BG134" s="106"/>
+      <c r="BD134" s="94"/>
+      <c r="BE134" s="96"/>
+      <c r="BF134" s="97"/>
+      <c r="BG134" s="98"/>
       <c r="BI134" s="4"/>
       <c r="BJ134" s="4"/>
       <c r="BK134" s="4"/>
@@ -12459,14 +12462,14 @@
       <c r="AW135" s="6"/>
       <c r="AX135" s="6"/>
       <c r="AY135" s="27"/>
-      <c r="AZ135" s="93"/>
+      <c r="AZ135" s="86"/>
       <c r="BA135" s="2"/>
-      <c r="BB135" s="93"/>
+      <c r="BB135" s="86"/>
       <c r="BC135" s="2"/>
-      <c r="BD135" s="96"/>
-      <c r="BE135" s="100"/>
-      <c r="BF135" s="101"/>
-      <c r="BG135" s="102"/>
+      <c r="BD135" s="95"/>
+      <c r="BE135" s="99"/>
+      <c r="BF135" s="100"/>
+      <c r="BG135" s="101"/>
       <c r="BI135" s="4"/>
       <c r="BJ135" s="4"/>
       <c r="BK135" s="4"/>
@@ -12537,14 +12540,14 @@
       <c r="AW136" s="6"/>
       <c r="AX136" s="6"/>
       <c r="AY136" s="27"/>
-      <c r="AZ136" s="93"/>
+      <c r="AZ136" s="86"/>
       <c r="BA136" s="2"/>
-      <c r="BB136" s="93"/>
+      <c r="BB136" s="86"/>
       <c r="BC136" s="2"/>
-      <c r="BD136" s="103"/>
-      <c r="BE136" s="104"/>
-      <c r="BF136" s="105"/>
-      <c r="BG136" s="106"/>
+      <c r="BD136" s="94"/>
+      <c r="BE136" s="96"/>
+      <c r="BF136" s="97"/>
+      <c r="BG136" s="98"/>
       <c r="BI136" s="4"/>
       <c r="BJ136" s="4"/>
       <c r="BK136" s="4"/>
@@ -12615,14 +12618,14 @@
       <c r="AW137" s="6"/>
       <c r="AX137" s="6"/>
       <c r="AY137" s="27"/>
-      <c r="AZ137" s="94"/>
+      <c r="AZ137" s="87"/>
       <c r="BA137" s="2"/>
-      <c r="BB137" s="93"/>
+      <c r="BB137" s="86"/>
       <c r="BC137" s="2"/>
-      <c r="BD137" s="96"/>
-      <c r="BE137" s="100"/>
-      <c r="BF137" s="101"/>
-      <c r="BG137" s="102"/>
+      <c r="BD137" s="95"/>
+      <c r="BE137" s="99"/>
+      <c r="BF137" s="100"/>
+      <c r="BG137" s="101"/>
       <c r="BI137" s="4"/>
       <c r="BJ137" s="4"/>
       <c r="BK137" s="4"/>
@@ -12695,12 +12698,12 @@
       <c r="AY138" s="27"/>
       <c r="AZ138" s="38"/>
       <c r="BA138" s="2"/>
-      <c r="BB138" s="93"/>
+      <c r="BB138" s="86"/>
       <c r="BC138" s="2"/>
-      <c r="BD138" s="103"/>
-      <c r="BE138" s="104"/>
-      <c r="BF138" s="105"/>
-      <c r="BG138" s="106"/>
+      <c r="BD138" s="94"/>
+      <c r="BE138" s="96"/>
+      <c r="BF138" s="97"/>
+      <c r="BG138" s="98"/>
       <c r="BI138" s="4"/>
       <c r="BJ138" s="4"/>
       <c r="BK138" s="4"/>
@@ -12773,16 +12776,16 @@
       <c r="AW139" s="6"/>
       <c r="AX139" s="6"/>
       <c r="AY139" s="27"/>
-      <c r="AZ139" s="92">
+      <c r="AZ139" s="85">
         <v>35</v>
       </c>
       <c r="BA139" s="2"/>
-      <c r="BB139" s="93"/>
+      <c r="BB139" s="86"/>
       <c r="BC139" s="2"/>
-      <c r="BD139" s="96"/>
-      <c r="BE139" s="100"/>
-      <c r="BF139" s="101"/>
-      <c r="BG139" s="102"/>
+      <c r="BD139" s="95"/>
+      <c r="BE139" s="99"/>
+      <c r="BF139" s="100"/>
+      <c r="BG139" s="101"/>
       <c r="BI139" s="4"/>
       <c r="BJ139" s="4"/>
       <c r="BK139" s="4"/>
@@ -12853,14 +12856,14 @@
       <c r="AW140" s="6"/>
       <c r="AX140" s="6"/>
       <c r="AY140" s="27"/>
-      <c r="AZ140" s="93"/>
+      <c r="AZ140" s="86"/>
       <c r="BA140" s="2"/>
-      <c r="BB140" s="93"/>
+      <c r="BB140" s="86"/>
       <c r="BC140" s="2"/>
-      <c r="BD140" s="103"/>
-      <c r="BE140" s="104"/>
-      <c r="BF140" s="105"/>
-      <c r="BG140" s="106"/>
+      <c r="BD140" s="94"/>
+      <c r="BE140" s="96"/>
+      <c r="BF140" s="97"/>
+      <c r="BG140" s="98"/>
       <c r="BI140" s="4"/>
       <c r="BJ140" s="4"/>
       <c r="BK140" s="4"/>
@@ -12931,14 +12934,14 @@
       <c r="AW141" s="6"/>
       <c r="AX141" s="6"/>
       <c r="AY141" s="27"/>
-      <c r="AZ141" s="93"/>
+      <c r="AZ141" s="86"/>
       <c r="BA141" s="2"/>
-      <c r="BB141" s="93"/>
+      <c r="BB141" s="86"/>
       <c r="BC141" s="2"/>
-      <c r="BD141" s="96"/>
-      <c r="BE141" s="100"/>
-      <c r="BF141" s="101"/>
-      <c r="BG141" s="102"/>
+      <c r="BD141" s="95"/>
+      <c r="BE141" s="99"/>
+      <c r="BF141" s="100"/>
+      <c r="BG141" s="101"/>
       <c r="BI141" s="4"/>
       <c r="BJ141" s="4"/>
       <c r="BK141" s="4"/>
@@ -13009,14 +13012,14 @@
       <c r="AW142" s="6"/>
       <c r="AX142" s="2"/>
       <c r="AY142" s="32"/>
-      <c r="AZ142" s="93"/>
+      <c r="AZ142" s="86"/>
       <c r="BA142" s="2"/>
-      <c r="BB142" s="93"/>
+      <c r="BB142" s="86"/>
       <c r="BC142" s="1"/>
-      <c r="BD142" s="103"/>
-      <c r="BE142" s="104"/>
-      <c r="BF142" s="105"/>
-      <c r="BG142" s="106"/>
+      <c r="BD142" s="94"/>
+      <c r="BE142" s="96"/>
+      <c r="BF142" s="97"/>
+      <c r="BG142" s="98"/>
       <c r="BI142" s="4"/>
       <c r="BJ142" s="4"/>
       <c r="BK142" s="4"/>
@@ -13087,14 +13090,14 @@
       <c r="AW143" s="6"/>
       <c r="AX143" s="2"/>
       <c r="AY143" s="32"/>
-      <c r="AZ143" s="93"/>
+      <c r="AZ143" s="86"/>
       <c r="BA143" s="2"/>
-      <c r="BB143" s="93"/>
+      <c r="BB143" s="86"/>
       <c r="BC143" s="1"/>
-      <c r="BD143" s="96"/>
-      <c r="BE143" s="100"/>
-      <c r="BF143" s="101"/>
-      <c r="BG143" s="102"/>
+      <c r="BD143" s="95"/>
+      <c r="BE143" s="99"/>
+      <c r="BF143" s="100"/>
+      <c r="BG143" s="101"/>
       <c r="BI143" s="4"/>
       <c r="BJ143" s="4"/>
       <c r="BK143" s="4"/>
@@ -13165,14 +13168,14 @@
       <c r="AW144" s="6"/>
       <c r="AX144" s="2"/>
       <c r="AY144" s="27"/>
-      <c r="AZ144" s="94"/>
+      <c r="AZ144" s="87"/>
       <c r="BA144" s="2"/>
-      <c r="BB144" s="94"/>
+      <c r="BB144" s="87"/>
       <c r="BC144" s="2"/>
-      <c r="BD144" s="103"/>
-      <c r="BE144" s="104"/>
-      <c r="BF144" s="105"/>
-      <c r="BG144" s="106"/>
+      <c r="BD144" s="94"/>
+      <c r="BE144" s="96"/>
+      <c r="BF144" s="97"/>
+      <c r="BG144" s="98"/>
       <c r="BI144" s="4"/>
       <c r="BJ144" s="4"/>
       <c r="BK144" s="4"/>
@@ -13247,10 +13250,10 @@
       <c r="BA145" s="2"/>
       <c r="BB145" s="40"/>
       <c r="BC145" s="2"/>
-      <c r="BD145" s="96"/>
-      <c r="BE145" s="100"/>
-      <c r="BF145" s="101"/>
-      <c r="BG145" s="102"/>
+      <c r="BD145" s="95"/>
+      <c r="BE145" s="99"/>
+      <c r="BF145" s="100"/>
+      <c r="BG145" s="101"/>
       <c r="BI145" s="4"/>
       <c r="BJ145" s="4"/>
       <c r="BK145" s="4"/>
@@ -13325,10 +13328,10 @@
       <c r="BA146" s="6"/>
       <c r="BB146" s="6"/>
       <c r="BC146" s="2"/>
-      <c r="BD146" s="103"/>
-      <c r="BE146" s="104"/>
-      <c r="BF146" s="105"/>
-      <c r="BG146" s="106"/>
+      <c r="BD146" s="94"/>
+      <c r="BE146" s="96"/>
+      <c r="BF146" s="97"/>
+      <c r="BG146" s="98"/>
       <c r="BI146" s="4"/>
       <c r="BJ146" s="4"/>
       <c r="BK146" s="4"/>
@@ -13403,10 +13406,10 @@
       <c r="BA147" s="6"/>
       <c r="BB147" s="6"/>
       <c r="BC147" s="2"/>
-      <c r="BD147" s="96"/>
-      <c r="BE147" s="100"/>
-      <c r="BF147" s="101"/>
-      <c r="BG147" s="102"/>
+      <c r="BD147" s="95"/>
+      <c r="BE147" s="99"/>
+      <c r="BF147" s="100"/>
+      <c r="BG147" s="101"/>
       <c r="BI147" s="4"/>
       <c r="BJ147" s="4"/>
       <c r="BK147" s="4"/>
@@ -13483,10 +13486,10 @@
       <c r="BA148" s="109"/>
       <c r="BB148" s="110"/>
       <c r="BC148" s="2"/>
-      <c r="BD148" s="103"/>
-      <c r="BE148" s="104"/>
-      <c r="BF148" s="105"/>
-      <c r="BG148" s="106"/>
+      <c r="BD148" s="94"/>
+      <c r="BE148" s="96"/>
+      <c r="BF148" s="97"/>
+      <c r="BG148" s="98"/>
       <c r="BI148" s="4"/>
       <c r="BJ148" s="4"/>
       <c r="BK148" s="4"/>
@@ -13561,10 +13564,10 @@
       <c r="BA149" s="112"/>
       <c r="BB149" s="113"/>
       <c r="BC149" s="2"/>
-      <c r="BD149" s="96"/>
-      <c r="BE149" s="100"/>
-      <c r="BF149" s="101"/>
-      <c r="BG149" s="102"/>
+      <c r="BD149" s="95"/>
+      <c r="BE149" s="99"/>
+      <c r="BF149" s="100"/>
+      <c r="BG149" s="101"/>
       <c r="BI149" s="4"/>
       <c r="BJ149" s="4"/>
       <c r="BK149" s="4"/>
@@ -13639,10 +13642,10 @@
       <c r="BA150" s="6"/>
       <c r="BB150" s="6"/>
       <c r="BC150" s="2"/>
-      <c r="BD150" s="103"/>
-      <c r="BE150" s="104"/>
-      <c r="BF150" s="105"/>
-      <c r="BG150" s="106"/>
+      <c r="BD150" s="94"/>
+      <c r="BE150" s="96"/>
+      <c r="BF150" s="97"/>
+      <c r="BG150" s="98"/>
       <c r="BI150" s="4"/>
       <c r="BJ150" s="4"/>
       <c r="BK150" s="4"/>
@@ -13671,59 +13674,59 @@
       </c>
       <c r="F151" s="9"/>
       <c r="G151" s="9"/>
-      <c r="H151" s="89" t="s">
+      <c r="H151" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="I151" s="89"/>
+      <c r="I151" s="107"/>
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
       <c r="L151" s="9"/>
-      <c r="M151" s="89" t="s">
+      <c r="M151" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="N151" s="89"/>
+      <c r="N151" s="107"/>
       <c r="O151" s="9"/>
       <c r="P151" s="9"/>
       <c r="Q151" s="9"/>
-      <c r="R151" s="89" t="s">
+      <c r="R151" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="S151" s="89"/>
+      <c r="S151" s="107"/>
       <c r="T151" s="9"/>
       <c r="U151" s="9"/>
       <c r="V151" s="9"/>
-      <c r="W151" s="89" t="s">
+      <c r="W151" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="X151" s="89"/>
+      <c r="X151" s="107"/>
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
-      <c r="AB151" s="89" t="s">
+      <c r="AB151" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AC151" s="89"/>
+      <c r="AC151" s="107"/>
       <c r="AD151" s="9"/>
       <c r="AE151" s="9"/>
       <c r="AF151" s="9"/>
-      <c r="AG151" s="89" t="s">
+      <c r="AG151" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AH151" s="89"/>
+      <c r="AH151" s="107"/>
       <c r="AI151" s="9"/>
       <c r="AJ151" s="9"/>
       <c r="AK151" s="9"/>
-      <c r="AL151" s="89" t="s">
+      <c r="AL151" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="AM151" s="89"/>
+      <c r="AM151" s="107"/>
       <c r="AN151" s="9"/>
       <c r="AO151" s="9"/>
       <c r="AP151" s="9"/>
-      <c r="AQ151" s="89" t="s">
+      <c r="AQ151" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="AR151" s="89"/>
+      <c r="AR151" s="107"/>
       <c r="AS151" s="9"/>
       <c r="AT151" s="9"/>
       <c r="AU151" s="9" t="s">
@@ -13737,10 +13740,10 @@
       <c r="BA151" s="6"/>
       <c r="BB151" s="6"/>
       <c r="BC151" s="2"/>
-      <c r="BD151" s="96"/>
-      <c r="BE151" s="100"/>
-      <c r="BF151" s="101"/>
-      <c r="BG151" s="102"/>
+      <c r="BD151" s="95"/>
+      <c r="BE151" s="99"/>
+      <c r="BF151" s="100"/>
+      <c r="BG151" s="101"/>
       <c r="BI151" s="4"/>
       <c r="BJ151" s="4"/>
       <c r="BK151" s="4"/>
@@ -13815,10 +13818,10 @@
       <c r="BA152" s="6"/>
       <c r="BB152" s="6"/>
       <c r="BC152" s="2"/>
-      <c r="BD152" s="103"/>
-      <c r="BE152" s="104"/>
-      <c r="BF152" s="105"/>
-      <c r="BG152" s="106"/>
+      <c r="BD152" s="94"/>
+      <c r="BE152" s="96"/>
+      <c r="BF152" s="97"/>
+      <c r="BG152" s="98"/>
       <c r="BI152" s="4"/>
       <c r="BJ152" s="4"/>
       <c r="BK152" s="4"/>
@@ -13889,18 +13892,18 @@
       <c r="AW153" s="6"/>
       <c r="AX153" s="2"/>
       <c r="AY153" s="27"/>
-      <c r="AZ153" s="92">
+      <c r="AZ153" s="85">
         <v>39</v>
       </c>
       <c r="BA153" s="2"/>
-      <c r="BB153" s="92">
+      <c r="BB153" s="85">
         <v>40</v>
       </c>
       <c r="BC153" s="6"/>
-      <c r="BD153" s="96"/>
-      <c r="BE153" s="100"/>
-      <c r="BF153" s="101"/>
-      <c r="BG153" s="102"/>
+      <c r="BD153" s="95"/>
+      <c r="BE153" s="99"/>
+      <c r="BF153" s="100"/>
+      <c r="BG153" s="101"/>
       <c r="BI153" s="4"/>
       <c r="BJ153" s="4"/>
       <c r="BK153" s="4"/>
@@ -13971,14 +13974,14 @@
       <c r="AW154" s="6"/>
       <c r="AX154" s="2"/>
       <c r="AY154" s="27"/>
-      <c r="AZ154" s="93"/>
+      <c r="AZ154" s="86"/>
       <c r="BA154" s="2"/>
-      <c r="BB154" s="93"/>
+      <c r="BB154" s="86"/>
       <c r="BC154" s="6"/>
-      <c r="BD154" s="103"/>
-      <c r="BE154" s="104"/>
-      <c r="BF154" s="105"/>
-      <c r="BG154" s="106"/>
+      <c r="BD154" s="94"/>
+      <c r="BE154" s="96"/>
+      <c r="BF154" s="97"/>
+      <c r="BG154" s="98"/>
       <c r="BI154" s="4"/>
       <c r="BJ154" s="4"/>
       <c r="BK154" s="4"/>
@@ -14049,14 +14052,14 @@
       <c r="AW155" s="6"/>
       <c r="AX155" s="2"/>
       <c r="AY155" s="27"/>
-      <c r="AZ155" s="93"/>
+      <c r="AZ155" s="86"/>
       <c r="BA155" s="2"/>
-      <c r="BB155" s="93"/>
+      <c r="BB155" s="86"/>
       <c r="BC155" s="6"/>
-      <c r="BD155" s="96"/>
-      <c r="BE155" s="100"/>
-      <c r="BF155" s="101"/>
-      <c r="BG155" s="102"/>
+      <c r="BD155" s="95"/>
+      <c r="BE155" s="99"/>
+      <c r="BF155" s="100"/>
+      <c r="BG155" s="101"/>
       <c r="BI155" s="4"/>
       <c r="BJ155" s="4"/>
       <c r="BK155" s="4"/>
@@ -14127,14 +14130,14 @@
       <c r="AW156" s="6"/>
       <c r="AX156" s="2"/>
       <c r="AY156" s="27"/>
-      <c r="AZ156" s="93"/>
+      <c r="AZ156" s="86"/>
       <c r="BA156" s="2"/>
-      <c r="BB156" s="93"/>
+      <c r="BB156" s="86"/>
       <c r="BC156" s="6"/>
-      <c r="BD156" s="103"/>
-      <c r="BE156" s="104"/>
-      <c r="BF156" s="105"/>
-      <c r="BG156" s="106"/>
+      <c r="BD156" s="94"/>
+      <c r="BE156" s="96"/>
+      <c r="BF156" s="97"/>
+      <c r="BG156" s="98"/>
       <c r="BI156" s="4"/>
       <c r="BJ156" s="4"/>
       <c r="BK156" s="4"/>
@@ -14205,14 +14208,14 @@
       <c r="AW157" s="6"/>
       <c r="AX157" s="2"/>
       <c r="AY157" s="27"/>
-      <c r="AZ157" s="93"/>
+      <c r="AZ157" s="86"/>
       <c r="BA157" s="2"/>
-      <c r="BB157" s="93"/>
+      <c r="BB157" s="86"/>
       <c r="BC157" s="6"/>
-      <c r="BD157" s="114"/>
-      <c r="BE157" s="115"/>
-      <c r="BF157" s="116"/>
-      <c r="BG157" s="117"/>
+      <c r="BD157" s="102"/>
+      <c r="BE157" s="103"/>
+      <c r="BF157" s="104"/>
+      <c r="BG157" s="105"/>
       <c r="BI157" s="4"/>
       <c r="BJ157" s="4"/>
       <c r="BK157" s="4"/>
@@ -14283,14 +14286,14 @@
       <c r="AW158" s="6"/>
       <c r="AX158" s="2"/>
       <c r="AY158" s="27"/>
-      <c r="AZ158" s="94"/>
+      <c r="AZ158" s="87"/>
       <c r="BA158" s="2"/>
-      <c r="BB158" s="93"/>
+      <c r="BB158" s="86"/>
       <c r="BC158" s="6"/>
-      <c r="BD158" s="118"/>
-      <c r="BE158" s="118"/>
-      <c r="BF158" s="118"/>
-      <c r="BG158" s="118"/>
+      <c r="BD158" s="106"/>
+      <c r="BE158" s="106"/>
+      <c r="BF158" s="106"/>
+      <c r="BG158" s="106"/>
       <c r="BI158" s="4"/>
       <c r="BJ158" s="4"/>
       <c r="BK158" s="4"/>
@@ -14365,12 +14368,12 @@
       <c r="AY159" s="27"/>
       <c r="AZ159" s="43"/>
       <c r="BA159" s="2"/>
-      <c r="BB159" s="93"/>
+      <c r="BB159" s="86"/>
       <c r="BC159" s="6"/>
-      <c r="BD159" s="118"/>
-      <c r="BE159" s="118"/>
-      <c r="BF159" s="118"/>
-      <c r="BG159" s="118"/>
+      <c r="BD159" s="106"/>
+      <c r="BE159" s="106"/>
+      <c r="BF159" s="106"/>
+      <c r="BG159" s="106"/>
       <c r="BI159" s="4"/>
       <c r="BJ159" s="4"/>
       <c r="BK159" s="4"/>
@@ -14441,11 +14444,11 @@
       <c r="AW160" s="6"/>
       <c r="AX160" s="2"/>
       <c r="AY160" s="27"/>
-      <c r="AZ160" s="92">
+      <c r="AZ160" s="85">
         <v>41</v>
       </c>
       <c r="BA160" s="2"/>
-      <c r="BB160" s="93"/>
+      <c r="BB160" s="86"/>
       <c r="BC160" s="6"/>
       <c r="BD160" s="82"/>
       <c r="BE160" s="82"/>
@@ -14521,9 +14524,9 @@
       <c r="AW161" s="6"/>
       <c r="AX161" s="2"/>
       <c r="AY161" s="27"/>
-      <c r="AZ161" s="93"/>
+      <c r="AZ161" s="86"/>
       <c r="BA161" s="2"/>
-      <c r="BB161" s="93"/>
+      <c r="BB161" s="86"/>
       <c r="BC161" s="6"/>
       <c r="BD161" s="82"/>
       <c r="BE161" s="82"/>
@@ -14599,9 +14602,9 @@
       <c r="AW162" s="6"/>
       <c r="AX162" s="2"/>
       <c r="AY162" s="27"/>
-      <c r="AZ162" s="93"/>
+      <c r="AZ162" s="86"/>
       <c r="BA162" s="2"/>
-      <c r="BB162" s="93"/>
+      <c r="BB162" s="86"/>
       <c r="BC162" s="6"/>
       <c r="BD162" s="82"/>
       <c r="BE162" s="82"/>
@@ -14677,9 +14680,9 @@
       <c r="AW163" s="6"/>
       <c r="AX163" s="2"/>
       <c r="AY163" s="27"/>
-      <c r="AZ163" s="93"/>
+      <c r="AZ163" s="86"/>
       <c r="BA163" s="2"/>
-      <c r="BB163" s="93"/>
+      <c r="BB163" s="86"/>
       <c r="BC163" s="6"/>
       <c r="BD163" s="82"/>
       <c r="BE163" s="82"/>
@@ -14755,16 +14758,16 @@
       <c r="AW164" s="6"/>
       <c r="AX164" s="2"/>
       <c r="AY164" s="27"/>
-      <c r="AZ164" s="93"/>
+      <c r="AZ164" s="86"/>
       <c r="BA164" s="2"/>
-      <c r="BB164" s="93"/>
+      <c r="BB164" s="86"/>
       <c r="BC164" s="6"/>
-      <c r="BD164" s="123" t="s">
+      <c r="BD164" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="BE164" s="123"/>
-      <c r="BF164" s="123"/>
-      <c r="BG164" s="123"/>
+      <c r="BE164" s="91"/>
+      <c r="BF164" s="91"/>
+      <c r="BG164" s="91"/>
       <c r="BI164" s="4"/>
       <c r="BJ164" s="4"/>
       <c r="BK164" s="4"/>
@@ -14835,14 +14838,14 @@
       <c r="AW165" s="6"/>
       <c r="AX165" s="2"/>
       <c r="AY165" s="27"/>
-      <c r="AZ165" s="94"/>
+      <c r="AZ165" s="87"/>
       <c r="BA165" s="2"/>
-      <c r="BB165" s="94"/>
+      <c r="BB165" s="87"/>
       <c r="BC165" s="6"/>
-      <c r="BD165" s="123"/>
-      <c r="BE165" s="123"/>
-      <c r="BF165" s="123"/>
-      <c r="BG165" s="123"/>
+      <c r="BD165" s="91"/>
+      <c r="BE165" s="91"/>
+      <c r="BF165" s="91"/>
+      <c r="BG165" s="91"/>
       <c r="BI165" s="4"/>
       <c r="BJ165" s="4"/>
       <c r="BK165" s="4"/>
@@ -14917,10 +14920,10 @@
       <c r="BA166" s="6"/>
       <c r="BB166" s="6"/>
       <c r="BC166" s="6"/>
-      <c r="BD166" s="123"/>
-      <c r="BE166" s="123"/>
-      <c r="BF166" s="123"/>
-      <c r="BG166" s="123"/>
+      <c r="BD166" s="91"/>
+      <c r="BE166" s="91"/>
+      <c r="BF166" s="91"/>
+      <c r="BG166" s="91"/>
       <c r="BI166" s="4"/>
       <c r="BJ166" s="4"/>
       <c r="BK166" s="4"/>
@@ -14986,8 +14989,8 @@
       <c r="AR167" s="2"/>
       <c r="AS167" s="6"/>
       <c r="AT167" s="6"/>
-      <c r="AU167" s="126"/>
-      <c r="AV167" s="126"/>
+      <c r="AU167" s="93"/>
+      <c r="AV167" s="93"/>
       <c r="AW167" s="42"/>
       <c r="AX167" s="2"/>
       <c r="AY167" s="27"/>
@@ -14995,12 +14998,12 @@
       <c r="BA167" s="6"/>
       <c r="BB167" s="6"/>
       <c r="BC167" s="6"/>
-      <c r="BD167" s="124" t="s">
+      <c r="BD167" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="BE167" s="124"/>
-      <c r="BF167" s="124"/>
-      <c r="BG167" s="124"/>
+      <c r="BE167" s="88"/>
+      <c r="BF167" s="88"/>
+      <c r="BG167" s="88"/>
       <c r="BI167" s="4"/>
       <c r="BJ167" s="4"/>
       <c r="BK167" s="4"/>
@@ -15071,18 +15074,18 @@
       <c r="AW168" s="6"/>
       <c r="AX168" s="2"/>
       <c r="AY168" s="27"/>
-      <c r="AZ168" s="92">
+      <c r="AZ168" s="85">
         <v>43</v>
       </c>
       <c r="BA168" s="2"/>
-      <c r="BB168" s="92">
+      <c r="BB168" s="85">
         <v>44</v>
       </c>
       <c r="BC168" s="6"/>
-      <c r="BD168" s="124"/>
-      <c r="BE168" s="124"/>
-      <c r="BF168" s="124"/>
-      <c r="BG168" s="124"/>
+      <c r="BD168" s="88"/>
+      <c r="BE168" s="88"/>
+      <c r="BF168" s="88"/>
+      <c r="BG168" s="88"/>
       <c r="BI168" s="4"/>
       <c r="BJ168" s="4"/>
       <c r="BK168" s="4"/>
@@ -15153,16 +15156,16 @@
       <c r="AW169" s="6"/>
       <c r="AX169" s="2"/>
       <c r="AY169" s="27"/>
-      <c r="AZ169" s="93"/>
+      <c r="AZ169" s="86"/>
       <c r="BA169" s="2"/>
-      <c r="BB169" s="93"/>
+      <c r="BB169" s="86"/>
       <c r="BC169" s="6"/>
-      <c r="BD169" s="124" t="s">
+      <c r="BD169" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="BE169" s="124"/>
-      <c r="BF169" s="124"/>
-      <c r="BG169" s="124"/>
+      <c r="BE169" s="88"/>
+      <c r="BF169" s="88"/>
+      <c r="BG169" s="88"/>
       <c r="BI169" s="4"/>
       <c r="BJ169" s="4"/>
       <c r="BK169" s="4"/>
@@ -15233,14 +15236,14 @@
       <c r="AW170" s="6"/>
       <c r="AX170" s="2"/>
       <c r="AY170" s="27"/>
-      <c r="AZ170" s="93"/>
+      <c r="AZ170" s="86"/>
       <c r="BA170" s="2"/>
-      <c r="BB170" s="93"/>
+      <c r="BB170" s="86"/>
       <c r="BC170" s="6"/>
-      <c r="BD170" s="124"/>
-      <c r="BE170" s="124"/>
-      <c r="BF170" s="124"/>
-      <c r="BG170" s="124"/>
+      <c r="BD170" s="88"/>
+      <c r="BE170" s="88"/>
+      <c r="BF170" s="88"/>
+      <c r="BG170" s="88"/>
       <c r="BI170" s="4"/>
       <c r="BJ170" s="4"/>
       <c r="BK170" s="4"/>
@@ -15311,16 +15314,16 @@
       <c r="AW171" s="6"/>
       <c r="AX171" s="2"/>
       <c r="AY171" s="27"/>
-      <c r="AZ171" s="93"/>
+      <c r="AZ171" s="86"/>
       <c r="BA171" s="2"/>
-      <c r="BB171" s="93"/>
+      <c r="BB171" s="86"/>
       <c r="BC171" s="6"/>
-      <c r="BD171" s="124" t="s">
+      <c r="BD171" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="BE171" s="124"/>
-      <c r="BF171" s="124"/>
-      <c r="BG171" s="124"/>
+      <c r="BE171" s="88"/>
+      <c r="BF171" s="88"/>
+      <c r="BG171" s="88"/>
       <c r="BI171" s="4"/>
       <c r="BJ171" s="4"/>
       <c r="BK171" s="4"/>
@@ -15391,14 +15394,14 @@
       <c r="AW172" s="6"/>
       <c r="AX172" s="2"/>
       <c r="AY172" s="27"/>
-      <c r="AZ172" s="93"/>
+      <c r="AZ172" s="86"/>
       <c r="BA172" s="2"/>
-      <c r="BB172" s="93"/>
+      <c r="BB172" s="86"/>
       <c r="BC172" s="6"/>
-      <c r="BD172" s="124"/>
-      <c r="BE172" s="124"/>
-      <c r="BF172" s="124"/>
-      <c r="BG172" s="124"/>
+      <c r="BD172" s="88"/>
+      <c r="BE172" s="88"/>
+      <c r="BF172" s="88"/>
+      <c r="BG172" s="88"/>
       <c r="BI172" s="4"/>
       <c r="BJ172" s="4"/>
       <c r="BK172" s="4"/>
@@ -15471,16 +15474,16 @@
       <c r="AW173" s="6"/>
       <c r="AX173" s="2"/>
       <c r="AY173" s="27"/>
-      <c r="AZ173" s="94"/>
+      <c r="AZ173" s="87"/>
       <c r="BA173" s="2"/>
-      <c r="BB173" s="93"/>
+      <c r="BB173" s="86"/>
       <c r="BC173" s="6"/>
-      <c r="BD173" s="129" t="s">
+      <c r="BD173" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="BE173" s="129"/>
-      <c r="BF173" s="129"/>
-      <c r="BG173" s="129"/>
+      <c r="BE173" s="89"/>
+      <c r="BF173" s="89"/>
+      <c r="BG173" s="89"/>
       <c r="BI173" s="4"/>
       <c r="BJ173" s="4"/>
       <c r="BK173" s="4"/>
@@ -15553,12 +15556,12 @@
       <c r="AY174" s="27"/>
       <c r="AZ174" s="2"/>
       <c r="BA174" s="2"/>
-      <c r="BB174" s="93"/>
+      <c r="BB174" s="86"/>
       <c r="BC174" s="6"/>
-      <c r="BD174" s="129"/>
-      <c r="BE174" s="129"/>
-      <c r="BF174" s="129"/>
-      <c r="BG174" s="129"/>
+      <c r="BD174" s="89"/>
+      <c r="BE174" s="89"/>
+      <c r="BF174" s="89"/>
+      <c r="BG174" s="89"/>
       <c r="BI174" s="4"/>
       <c r="BJ174" s="4"/>
       <c r="BK174" s="4"/>
@@ -15629,16 +15632,16 @@
       <c r="AW175" s="6"/>
       <c r="AX175" s="2"/>
       <c r="AY175" s="27"/>
-      <c r="AZ175" s="92">
+      <c r="AZ175" s="85">
         <v>45</v>
       </c>
       <c r="BA175" s="2"/>
-      <c r="BB175" s="93"/>
+      <c r="BB175" s="86"/>
       <c r="BC175" s="6"/>
-      <c r="BD175" s="129"/>
-      <c r="BE175" s="129"/>
-      <c r="BF175" s="129"/>
-      <c r="BG175" s="129"/>
+      <c r="BD175" s="89"/>
+      <c r="BE175" s="89"/>
+      <c r="BF175" s="89"/>
+      <c r="BG175" s="89"/>
       <c r="BI175" s="4"/>
       <c r="BJ175" s="4"/>
       <c r="BK175" s="4"/>
@@ -15709,14 +15712,14 @@
       <c r="AW176" s="6"/>
       <c r="AX176" s="2"/>
       <c r="AY176" s="27"/>
-      <c r="AZ176" s="93"/>
+      <c r="AZ176" s="86"/>
       <c r="BA176" s="2"/>
-      <c r="BB176" s="93"/>
+      <c r="BB176" s="86"/>
       <c r="BC176" s="6"/>
-      <c r="BD176" s="129"/>
-      <c r="BE176" s="129"/>
-      <c r="BF176" s="129"/>
-      <c r="BG176" s="129"/>
+      <c r="BD176" s="89"/>
+      <c r="BE176" s="89"/>
+      <c r="BF176" s="89"/>
+      <c r="BG176" s="89"/>
       <c r="BI176" s="4"/>
       <c r="BJ176" s="4"/>
       <c r="BK176" s="4"/>
@@ -15787,16 +15790,16 @@
       <c r="AW177" s="6"/>
       <c r="AX177" s="2"/>
       <c r="AY177" s="27"/>
-      <c r="AZ177" s="93"/>
+      <c r="AZ177" s="86"/>
       <c r="BA177" s="2"/>
-      <c r="BB177" s="93"/>
+      <c r="BB177" s="86"/>
       <c r="BC177" s="6"/>
-      <c r="BD177" s="125" t="s">
+      <c r="BD177" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="BE177" s="125"/>
-      <c r="BF177" s="125"/>
-      <c r="BG177" s="125"/>
+      <c r="BE177" s="92"/>
+      <c r="BF177" s="92"/>
+      <c r="BG177" s="92"/>
       <c r="BI177" s="4"/>
       <c r="BJ177" s="4"/>
       <c r="BK177" s="4"/>
@@ -15867,14 +15870,14 @@
       <c r="AW178" s="6"/>
       <c r="AX178" s="2"/>
       <c r="AY178" s="27"/>
-      <c r="AZ178" s="93"/>
+      <c r="AZ178" s="86"/>
       <c r="BA178" s="2"/>
-      <c r="BB178" s="93"/>
+      <c r="BB178" s="86"/>
       <c r="BC178" s="6"/>
-      <c r="BD178" s="125"/>
-      <c r="BE178" s="125"/>
-      <c r="BF178" s="125"/>
-      <c r="BG178" s="125"/>
+      <c r="BD178" s="92"/>
+      <c r="BE178" s="92"/>
+      <c r="BF178" s="92"/>
+      <c r="BG178" s="92"/>
       <c r="BI178" s="4"/>
       <c r="BJ178" s="4"/>
       <c r="BK178" s="4"/>
@@ -15945,9 +15948,9 @@
       <c r="AW179" s="6"/>
       <c r="AX179" s="2"/>
       <c r="AY179" s="27"/>
-      <c r="AZ179" s="93"/>
+      <c r="AZ179" s="86"/>
       <c r="BA179" s="2"/>
-      <c r="BB179" s="93"/>
+      <c r="BB179" s="86"/>
       <c r="BC179" s="6"/>
       <c r="BD179" s="82"/>
       <c r="BE179" s="82"/>
@@ -16023,9 +16026,9 @@
       <c r="AW180" s="6"/>
       <c r="AX180" s="2"/>
       <c r="AY180" s="27"/>
-      <c r="AZ180" s="94"/>
+      <c r="AZ180" s="87"/>
       <c r="BA180" s="2"/>
-      <c r="BB180" s="94"/>
+      <c r="BB180" s="87"/>
       <c r="BC180" s="6"/>
       <c r="BD180" s="82"/>
       <c r="BE180" s="82"/>
@@ -16257,16 +16260,16 @@
       <c r="AW183" s="60"/>
       <c r="AX183" s="60"/>
       <c r="AY183" s="60"/>
-      <c r="AZ183" s="130" t="s">
+      <c r="AZ183" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="BA183" s="130"/>
-      <c r="BB183" s="130"/>
-      <c r="BC183" s="130"/>
-      <c r="BD183" s="130"/>
+      <c r="BA183" s="90"/>
+      <c r="BB183" s="90"/>
+      <c r="BC183" s="90"/>
+      <c r="BD183" s="90"/>
       <c r="BE183" s="61"/>
       <c r="BF183" s="62"/>
-      <c r="BG183" s="130" t="s">
+      <c r="BG183" s="90" t="s">
         <v>26</v>
       </c>
       <c r="BI183" s="4"/>
@@ -16339,14 +16342,14 @@
       <c r="AW184" s="65"/>
       <c r="AX184" s="65"/>
       <c r="AY184" s="66"/>
-      <c r="AZ184" s="130"/>
-      <c r="BA184" s="130"/>
-      <c r="BB184" s="130"/>
-      <c r="BC184" s="130"/>
-      <c r="BD184" s="130"/>
+      <c r="AZ184" s="90"/>
+      <c r="BA184" s="90"/>
+      <c r="BB184" s="90"/>
+      <c r="BC184" s="90"/>
+      <c r="BD184" s="90"/>
       <c r="BE184" s="61"/>
       <c r="BF184" s="58"/>
-      <c r="BG184" s="130"/>
+      <c r="BG184" s="90"/>
       <c r="BI184" s="4"/>
       <c r="BJ184" s="4"/>
       <c r="BK184" s="4"/>
@@ -16421,14 +16424,14 @@
       <c r="AW185" s="65"/>
       <c r="AX185" s="65"/>
       <c r="AY185" s="66"/>
-      <c r="AZ185" s="127"/>
-      <c r="BA185" s="127"/>
-      <c r="BB185" s="127"/>
-      <c r="BC185" s="127"/>
-      <c r="BD185" s="127"/>
+      <c r="AZ185" s="83"/>
+      <c r="BA185" s="83"/>
+      <c r="BB185" s="83"/>
+      <c r="BC185" s="83"/>
+      <c r="BD185" s="83"/>
       <c r="BE185" s="68"/>
       <c r="BF185" s="62"/>
-      <c r="BG185" s="128"/>
+      <c r="BG185" s="84"/>
       <c r="BI185" s="4"/>
       <c r="BJ185" s="4"/>
       <c r="BK185" s="4"/>
@@ -16499,14 +16502,14 @@
       <c r="AW186" s="59"/>
       <c r="AX186" s="59"/>
       <c r="AY186" s="58"/>
-      <c r="AZ186" s="127"/>
-      <c r="BA186" s="127"/>
-      <c r="BB186" s="127"/>
-      <c r="BC186" s="127"/>
-      <c r="BD186" s="127"/>
+      <c r="AZ186" s="83"/>
+      <c r="BA186" s="83"/>
+      <c r="BB186" s="83"/>
+      <c r="BC186" s="83"/>
+      <c r="BD186" s="83"/>
       <c r="BE186" s="68"/>
       <c r="BF186" s="58"/>
-      <c r="BG186" s="128"/>
+      <c r="BG186" s="84"/>
       <c r="BI186" s="4"/>
       <c r="BJ186" s="4"/>
       <c r="BK186" s="4"/>
@@ -16802,6 +16805,9 @@
       <c r="AY190" s="81"/>
       <c r="AZ190" s="81"/>
       <c r="BA190" s="81"/>
+      <c r="BH190" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="191" spans="1:77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="80"/>
@@ -17026,189 +17032,72 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="266">
-    <mergeCell ref="AZ185:BD186"/>
-    <mergeCell ref="BG185:BG186"/>
-    <mergeCell ref="AZ175:AZ180"/>
-    <mergeCell ref="BD171:BG172"/>
-    <mergeCell ref="BD173:BG176"/>
-    <mergeCell ref="AZ183:BD184"/>
-    <mergeCell ref="BG183:BG184"/>
-    <mergeCell ref="BD164:BG166"/>
-    <mergeCell ref="BD167:BG168"/>
-    <mergeCell ref="BD169:BG170"/>
-    <mergeCell ref="BD177:BG178"/>
-    <mergeCell ref="AU167:AV167"/>
-    <mergeCell ref="AZ168:AZ173"/>
-    <mergeCell ref="BB168:BB180"/>
-    <mergeCell ref="AZ160:AZ165"/>
-    <mergeCell ref="BD152:BD153"/>
-    <mergeCell ref="BE152:BG153"/>
-    <mergeCell ref="AZ153:AZ158"/>
-    <mergeCell ref="BB153:BB165"/>
-    <mergeCell ref="BD154:BD155"/>
-    <mergeCell ref="BE154:BG155"/>
-    <mergeCell ref="BD156:BD157"/>
-    <mergeCell ref="BE156:BG157"/>
-    <mergeCell ref="BD158:BD159"/>
-    <mergeCell ref="BE158:BG159"/>
-    <mergeCell ref="BD150:BD151"/>
-    <mergeCell ref="BE150:BG151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="R151:S151"/>
-    <mergeCell ref="W151:X151"/>
-    <mergeCell ref="AB151:AC151"/>
-    <mergeCell ref="AG151:AH151"/>
-    <mergeCell ref="AL151:AM151"/>
-    <mergeCell ref="AQ151:AR151"/>
-    <mergeCell ref="AZ148:BB149"/>
-    <mergeCell ref="BD148:BD149"/>
-    <mergeCell ref="BE148:BG149"/>
-    <mergeCell ref="BD138:BD139"/>
-    <mergeCell ref="BE138:BG139"/>
-    <mergeCell ref="AZ139:AZ144"/>
-    <mergeCell ref="BD140:BD141"/>
-    <mergeCell ref="BE140:BG141"/>
-    <mergeCell ref="BD144:BD145"/>
-    <mergeCell ref="BE144:BG145"/>
-    <mergeCell ref="BD146:BD147"/>
-    <mergeCell ref="BE146:BG147"/>
-    <mergeCell ref="AZ132:AZ137"/>
-    <mergeCell ref="BB132:BB144"/>
-    <mergeCell ref="BD132:BD133"/>
-    <mergeCell ref="BE132:BG133"/>
-    <mergeCell ref="BD134:BD135"/>
-    <mergeCell ref="BE134:BG135"/>
-    <mergeCell ref="BD136:BD137"/>
-    <mergeCell ref="BE136:BG137"/>
-    <mergeCell ref="BD142:BD143"/>
-    <mergeCell ref="BE142:BG143"/>
-    <mergeCell ref="BD128:BD129"/>
-    <mergeCell ref="BE128:BG129"/>
-    <mergeCell ref="BD130:BD131"/>
-    <mergeCell ref="BE130:BG131"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="R130:S130"/>
-    <mergeCell ref="W130:X130"/>
-    <mergeCell ref="AB130:AC130"/>
-    <mergeCell ref="AG130:AH130"/>
-    <mergeCell ref="AL130:AM130"/>
-    <mergeCell ref="AQ130:AR130"/>
-    <mergeCell ref="AZ115:AZ120"/>
-    <mergeCell ref="BB115:BB127"/>
-    <mergeCell ref="BD118:BD119"/>
-    <mergeCell ref="BE118:BG119"/>
-    <mergeCell ref="BD120:BD121"/>
-    <mergeCell ref="BD114:BD115"/>
-    <mergeCell ref="BE114:BG115"/>
-    <mergeCell ref="BD116:BD117"/>
-    <mergeCell ref="BE120:BG121"/>
-    <mergeCell ref="AZ122:AZ127"/>
-    <mergeCell ref="BD122:BD123"/>
-    <mergeCell ref="BE122:BG123"/>
-    <mergeCell ref="BD112:BD113"/>
-    <mergeCell ref="BE112:BG113"/>
-    <mergeCell ref="BD124:BD125"/>
-    <mergeCell ref="BE124:BG125"/>
-    <mergeCell ref="BD126:BD127"/>
-    <mergeCell ref="BE126:BG127"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="M113:N113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="W113:X113"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="AG113:AH113"/>
-    <mergeCell ref="AL113:AM113"/>
-    <mergeCell ref="AQ113:AR113"/>
-    <mergeCell ref="BE116:BG117"/>
-    <mergeCell ref="BD104:BD105"/>
-    <mergeCell ref="BE104:BG105"/>
-    <mergeCell ref="AZ105:AZ110"/>
-    <mergeCell ref="BD106:BD107"/>
-    <mergeCell ref="BE106:BG107"/>
-    <mergeCell ref="BD108:BD109"/>
-    <mergeCell ref="BE108:BG109"/>
-    <mergeCell ref="BD110:BD111"/>
-    <mergeCell ref="BE110:BG111"/>
-    <mergeCell ref="BD96:BD97"/>
-    <mergeCell ref="BE96:BG97"/>
-    <mergeCell ref="AZ98:AZ103"/>
-    <mergeCell ref="BB98:BB110"/>
-    <mergeCell ref="BD98:BD99"/>
-    <mergeCell ref="BE98:BG99"/>
-    <mergeCell ref="BD100:BD101"/>
-    <mergeCell ref="BE100:BG101"/>
-    <mergeCell ref="BD102:BD103"/>
-    <mergeCell ref="BE102:BG103"/>
-    <mergeCell ref="BD94:BD95"/>
-    <mergeCell ref="BE94:BG95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="W96:X96"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="AG96:AH96"/>
-    <mergeCell ref="AL96:AM96"/>
-    <mergeCell ref="AQ96:AR96"/>
-    <mergeCell ref="AZ88:AZ93"/>
-    <mergeCell ref="BD92:BD93"/>
-    <mergeCell ref="BE92:BG93"/>
-    <mergeCell ref="BD88:BG91"/>
-    <mergeCell ref="BD80:BD81"/>
-    <mergeCell ref="BE80:BG81"/>
-    <mergeCell ref="AZ81:AZ86"/>
-    <mergeCell ref="BB81:BB93"/>
-    <mergeCell ref="BD82:BD83"/>
-    <mergeCell ref="BE82:BG83"/>
-    <mergeCell ref="BD84:BD85"/>
-    <mergeCell ref="BE84:BG85"/>
-    <mergeCell ref="BD86:BD87"/>
-    <mergeCell ref="BE86:BG87"/>
-    <mergeCell ref="BD78:BD79"/>
-    <mergeCell ref="BE78:BG79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="W79:X79"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="AG79:AH79"/>
-    <mergeCell ref="AL79:AM79"/>
-    <mergeCell ref="AQ79:AR79"/>
-    <mergeCell ref="AZ76:BB77"/>
-    <mergeCell ref="BD76:BD77"/>
-    <mergeCell ref="BE76:BG77"/>
-    <mergeCell ref="BD66:BD67"/>
-    <mergeCell ref="BE66:BG67"/>
-    <mergeCell ref="AZ67:AZ72"/>
-    <mergeCell ref="BD68:BD69"/>
-    <mergeCell ref="BE68:BG69"/>
-    <mergeCell ref="BD72:BD73"/>
-    <mergeCell ref="BE72:BG73"/>
-    <mergeCell ref="BD74:BD75"/>
-    <mergeCell ref="BE74:BG75"/>
-    <mergeCell ref="AZ60:AZ65"/>
-    <mergeCell ref="BB60:BB72"/>
-    <mergeCell ref="BD60:BD61"/>
-    <mergeCell ref="BE60:BG61"/>
-    <mergeCell ref="BD62:BD63"/>
-    <mergeCell ref="BE62:BG63"/>
-    <mergeCell ref="BD64:BD65"/>
-    <mergeCell ref="BE64:BG65"/>
-    <mergeCell ref="BD70:BD71"/>
-    <mergeCell ref="BE70:BG71"/>
-    <mergeCell ref="BD56:BD57"/>
-    <mergeCell ref="BE56:BG57"/>
-    <mergeCell ref="BD58:BD59"/>
-    <mergeCell ref="BE58:BG59"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AG58:AH58"/>
-    <mergeCell ref="AL58:AM58"/>
-    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="BD2:BG3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="BD4:BD5"/>
+    <mergeCell ref="BE4:BG5"/>
+    <mergeCell ref="AZ5:AZ10"/>
+    <mergeCell ref="BB5:BB17"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BG7"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BG9"/>
+    <mergeCell ref="BD10:BD11"/>
+    <mergeCell ref="BE10:BG11"/>
+    <mergeCell ref="AZ12:AZ17"/>
+    <mergeCell ref="BD12:BD13"/>
+    <mergeCell ref="BE12:BG13"/>
+    <mergeCell ref="BD14:BD15"/>
+    <mergeCell ref="BE14:BG15"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="BE16:BG17"/>
+    <mergeCell ref="BD18:BD19"/>
+    <mergeCell ref="BE18:BG19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="BD20:BD21"/>
+    <mergeCell ref="BE20:BG21"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="AZ22:AZ27"/>
+    <mergeCell ref="BB22:BB34"/>
+    <mergeCell ref="BD22:BD23"/>
+    <mergeCell ref="BE22:BG23"/>
+    <mergeCell ref="BD24:BD25"/>
+    <mergeCell ref="BE24:BG25"/>
+    <mergeCell ref="BD26:BD27"/>
+    <mergeCell ref="BE26:BG27"/>
+    <mergeCell ref="BD36:BD37"/>
+    <mergeCell ref="BE36:BG37"/>
+    <mergeCell ref="AZ38:BB39"/>
+    <mergeCell ref="BD38:BD39"/>
+    <mergeCell ref="BE38:BG39"/>
+    <mergeCell ref="BD28:BD29"/>
+    <mergeCell ref="BE28:BG29"/>
+    <mergeCell ref="AZ29:AZ34"/>
+    <mergeCell ref="BD30:BD31"/>
+    <mergeCell ref="BE30:BG31"/>
+    <mergeCell ref="BD32:BD33"/>
+    <mergeCell ref="BE32:BG33"/>
+    <mergeCell ref="BD34:BD35"/>
+    <mergeCell ref="BE34:BG35"/>
+    <mergeCell ref="BD40:BD41"/>
+    <mergeCell ref="BE40:BG41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="AB41:AC41"/>
+    <mergeCell ref="AG41:AH41"/>
+    <mergeCell ref="AL41:AM41"/>
+    <mergeCell ref="AQ41:AR41"/>
     <mergeCell ref="AZ50:AZ55"/>
     <mergeCell ref="BD50:BD51"/>
     <mergeCell ref="BE50:BG51"/>
@@ -17226,72 +17115,189 @@
     <mergeCell ref="BE46:BG47"/>
     <mergeCell ref="BD48:BD49"/>
     <mergeCell ref="BE48:BG49"/>
-    <mergeCell ref="BD40:BD41"/>
-    <mergeCell ref="BE40:BG41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="AB41:AC41"/>
-    <mergeCell ref="AG41:AH41"/>
-    <mergeCell ref="AL41:AM41"/>
-    <mergeCell ref="AQ41:AR41"/>
-    <mergeCell ref="BD36:BD37"/>
-    <mergeCell ref="BE36:BG37"/>
-    <mergeCell ref="AZ38:BB39"/>
-    <mergeCell ref="BD38:BD39"/>
-    <mergeCell ref="BE38:BG39"/>
-    <mergeCell ref="BD28:BD29"/>
-    <mergeCell ref="BE28:BG29"/>
-    <mergeCell ref="AZ29:AZ34"/>
-    <mergeCell ref="BD30:BD31"/>
-    <mergeCell ref="BE30:BG31"/>
-    <mergeCell ref="BD32:BD33"/>
-    <mergeCell ref="BE32:BG33"/>
-    <mergeCell ref="BD34:BD35"/>
-    <mergeCell ref="BE34:BG35"/>
-    <mergeCell ref="BD20:BD21"/>
-    <mergeCell ref="BE20:BG21"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="AZ22:AZ27"/>
-    <mergeCell ref="BB22:BB34"/>
-    <mergeCell ref="BD22:BD23"/>
-    <mergeCell ref="BE22:BG23"/>
-    <mergeCell ref="BD24:BD25"/>
-    <mergeCell ref="BE24:BG25"/>
-    <mergeCell ref="BD26:BD27"/>
-    <mergeCell ref="BE26:BG27"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="BE16:BG17"/>
-    <mergeCell ref="BD18:BD19"/>
-    <mergeCell ref="BE18:BG19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="BE6:BG7"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BG9"/>
-    <mergeCell ref="BD10:BD11"/>
-    <mergeCell ref="BE10:BG11"/>
-    <mergeCell ref="AZ12:AZ17"/>
-    <mergeCell ref="BD12:BD13"/>
-    <mergeCell ref="BE12:BG13"/>
-    <mergeCell ref="BD14:BD15"/>
-    <mergeCell ref="BE14:BG15"/>
-    <mergeCell ref="BD2:BG3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="BD4:BD5"/>
-    <mergeCell ref="BE4:BG5"/>
-    <mergeCell ref="AZ5:AZ10"/>
-    <mergeCell ref="BB5:BB17"/>
-    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BD56:BD57"/>
+    <mergeCell ref="BE56:BG57"/>
+    <mergeCell ref="BD58:BD59"/>
+    <mergeCell ref="BE58:BG59"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="M58:N58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AG58:AH58"/>
+    <mergeCell ref="AL58:AM58"/>
+    <mergeCell ref="AQ58:AR58"/>
+    <mergeCell ref="AZ60:AZ65"/>
+    <mergeCell ref="BB60:BB72"/>
+    <mergeCell ref="BD60:BD61"/>
+    <mergeCell ref="BE60:BG61"/>
+    <mergeCell ref="BD62:BD63"/>
+    <mergeCell ref="BE62:BG63"/>
+    <mergeCell ref="BD64:BD65"/>
+    <mergeCell ref="BE64:BG65"/>
+    <mergeCell ref="BD70:BD71"/>
+    <mergeCell ref="BE70:BG71"/>
+    <mergeCell ref="AZ76:BB77"/>
+    <mergeCell ref="BD76:BD77"/>
+    <mergeCell ref="BE76:BG77"/>
+    <mergeCell ref="BD66:BD67"/>
+    <mergeCell ref="BE66:BG67"/>
+    <mergeCell ref="AZ67:AZ72"/>
+    <mergeCell ref="BD68:BD69"/>
+    <mergeCell ref="BE68:BG69"/>
+    <mergeCell ref="BD72:BD73"/>
+    <mergeCell ref="BE72:BG73"/>
+    <mergeCell ref="BD74:BD75"/>
+    <mergeCell ref="BE74:BG75"/>
+    <mergeCell ref="BD78:BD79"/>
+    <mergeCell ref="BE78:BG79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="W79:X79"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="AG79:AH79"/>
+    <mergeCell ref="AL79:AM79"/>
+    <mergeCell ref="AQ79:AR79"/>
+    <mergeCell ref="AZ88:AZ93"/>
+    <mergeCell ref="BD92:BD93"/>
+    <mergeCell ref="BE92:BG93"/>
+    <mergeCell ref="BD88:BG91"/>
+    <mergeCell ref="BD80:BD81"/>
+    <mergeCell ref="BE80:BG81"/>
+    <mergeCell ref="AZ81:AZ86"/>
+    <mergeCell ref="BB81:BB93"/>
+    <mergeCell ref="BD82:BD83"/>
+    <mergeCell ref="BE82:BG83"/>
+    <mergeCell ref="BD84:BD85"/>
+    <mergeCell ref="BE84:BG85"/>
+    <mergeCell ref="BD86:BD87"/>
+    <mergeCell ref="BE86:BG87"/>
+    <mergeCell ref="BD94:BD95"/>
+    <mergeCell ref="BE94:BG95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="W96:X96"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="AG96:AH96"/>
+    <mergeCell ref="AL96:AM96"/>
+    <mergeCell ref="AQ96:AR96"/>
+    <mergeCell ref="BD96:BD97"/>
+    <mergeCell ref="BE96:BG97"/>
+    <mergeCell ref="AZ98:AZ103"/>
+    <mergeCell ref="BB98:BB110"/>
+    <mergeCell ref="BD98:BD99"/>
+    <mergeCell ref="BE98:BG99"/>
+    <mergeCell ref="BD100:BD101"/>
+    <mergeCell ref="BE100:BG101"/>
+    <mergeCell ref="BD102:BD103"/>
+    <mergeCell ref="BE102:BG103"/>
+    <mergeCell ref="BD104:BD105"/>
+    <mergeCell ref="BE104:BG105"/>
+    <mergeCell ref="AZ105:AZ110"/>
+    <mergeCell ref="BD106:BD107"/>
+    <mergeCell ref="BE106:BG107"/>
+    <mergeCell ref="BD108:BD109"/>
+    <mergeCell ref="BE108:BG109"/>
+    <mergeCell ref="BD110:BD111"/>
+    <mergeCell ref="BE110:BG111"/>
+    <mergeCell ref="BD112:BD113"/>
+    <mergeCell ref="BE112:BG113"/>
+    <mergeCell ref="BD124:BD125"/>
+    <mergeCell ref="BE124:BG125"/>
+    <mergeCell ref="BD126:BD127"/>
+    <mergeCell ref="BE126:BG127"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="M113:N113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="W113:X113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="AG113:AH113"/>
+    <mergeCell ref="AL113:AM113"/>
+    <mergeCell ref="AQ113:AR113"/>
+    <mergeCell ref="BE116:BG117"/>
+    <mergeCell ref="AZ115:AZ120"/>
+    <mergeCell ref="BB115:BB127"/>
+    <mergeCell ref="BD118:BD119"/>
+    <mergeCell ref="BE118:BG119"/>
+    <mergeCell ref="BD120:BD121"/>
+    <mergeCell ref="BD114:BD115"/>
+    <mergeCell ref="BE114:BG115"/>
+    <mergeCell ref="BD116:BD117"/>
+    <mergeCell ref="BE120:BG121"/>
+    <mergeCell ref="AZ122:AZ127"/>
+    <mergeCell ref="BD122:BD123"/>
+    <mergeCell ref="BE122:BG123"/>
+    <mergeCell ref="BD128:BD129"/>
+    <mergeCell ref="BE128:BG129"/>
+    <mergeCell ref="BD130:BD131"/>
+    <mergeCell ref="BE130:BG131"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="R130:S130"/>
+    <mergeCell ref="W130:X130"/>
+    <mergeCell ref="AB130:AC130"/>
+    <mergeCell ref="AG130:AH130"/>
+    <mergeCell ref="AL130:AM130"/>
+    <mergeCell ref="AQ130:AR130"/>
+    <mergeCell ref="AZ132:AZ137"/>
+    <mergeCell ref="BB132:BB144"/>
+    <mergeCell ref="BD132:BD133"/>
+    <mergeCell ref="BE132:BG133"/>
+    <mergeCell ref="BD134:BD135"/>
+    <mergeCell ref="BE134:BG135"/>
+    <mergeCell ref="BD136:BD137"/>
+    <mergeCell ref="BE136:BG137"/>
+    <mergeCell ref="BD142:BD143"/>
+    <mergeCell ref="BE142:BG143"/>
+    <mergeCell ref="AZ148:BB149"/>
+    <mergeCell ref="BD148:BD149"/>
+    <mergeCell ref="BE148:BG149"/>
+    <mergeCell ref="BD138:BD139"/>
+    <mergeCell ref="BE138:BG139"/>
+    <mergeCell ref="AZ139:AZ144"/>
+    <mergeCell ref="BD140:BD141"/>
+    <mergeCell ref="BE140:BG141"/>
+    <mergeCell ref="BD144:BD145"/>
+    <mergeCell ref="BE144:BG145"/>
+    <mergeCell ref="BD146:BD147"/>
+    <mergeCell ref="BE146:BG147"/>
+    <mergeCell ref="BD150:BD151"/>
+    <mergeCell ref="BE150:BG151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="R151:S151"/>
+    <mergeCell ref="W151:X151"/>
+    <mergeCell ref="AB151:AC151"/>
+    <mergeCell ref="AG151:AH151"/>
+    <mergeCell ref="AL151:AM151"/>
+    <mergeCell ref="AQ151:AR151"/>
+    <mergeCell ref="AU167:AV167"/>
+    <mergeCell ref="AZ168:AZ173"/>
+    <mergeCell ref="BB168:BB180"/>
+    <mergeCell ref="AZ160:AZ165"/>
+    <mergeCell ref="BD152:BD153"/>
+    <mergeCell ref="BE152:BG153"/>
+    <mergeCell ref="AZ153:AZ158"/>
+    <mergeCell ref="BB153:BB165"/>
+    <mergeCell ref="BD154:BD155"/>
+    <mergeCell ref="BE154:BG155"/>
+    <mergeCell ref="BD156:BD157"/>
+    <mergeCell ref="BE156:BG157"/>
+    <mergeCell ref="BD158:BD159"/>
+    <mergeCell ref="BE158:BG159"/>
+    <mergeCell ref="AZ185:BD186"/>
+    <mergeCell ref="BG185:BG186"/>
+    <mergeCell ref="AZ175:AZ180"/>
+    <mergeCell ref="BD171:BG172"/>
+    <mergeCell ref="BD173:BG176"/>
+    <mergeCell ref="AZ183:BD184"/>
+    <mergeCell ref="BG183:BG184"/>
+    <mergeCell ref="BD164:BG166"/>
+    <mergeCell ref="BD167:BG168"/>
+    <mergeCell ref="BD169:BG170"/>
+    <mergeCell ref="BD177:BG178"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="R5:S5 W5:X5 AB5:AC5 AG5:AH5 AG10:AH10 AB10:AC10 W10:X10 R10:S10 M12:N12 H12:I12 E12 R12:S12 W12:X12 AB12:AC12 AG12:AH12 AL12:AM12 AQ12:AR12 AU12 AU17 AQ17:AR17 AL17:AM17 AG17:AH17 AB17:AC17 W17:X17 R17:S17 M17:N17 H17:I17 E17 E22 H22:I22 M22:N22 R22:S22 W22:X22 AB22:AC22 AG22:AH22 AL22:AM22 AQ22:AR22 AU22 AU27 AQ27:AR27 AL27:AM27 AG27:AH27 AB27:AC27 W27:X27 R27:S27 M27:N27 H27:I27 E27 E29 H29:I29 M29:N29 R29:S29 W29:X29 AB29:AC29 AG29:AH29 AL29:AM29 AQ29:AR29 AU29 AU34 AQ34:AR34 AL34:AM34 AG34:AH34 AB34:AC34 W34:X34 R34:S34 M34:N34 H34:I34 E34 J37 J40 T40 T37 V37 V40 AE40 AE37 AG37 AG40 AP40 AP37 AQ81:AR81 AU81 AU86 AQ86:AR86 AL86:AM86 AG86:AH86 AB86:AC86 W86:X86 R86:S86 M86:N86 H86:I86 E86 E88 H88:I88 M88:N88 R88:S88 W88:X88 AB88:AC88 AG88:AH88 AL88:AM88 AQ88:AR88 AU88 AU93 AQ93:AR93 AL93:AM93 AG93:AH93 AB93:AC93 W93:X93 R93:S93 M93:N93 H93:I93 E93 O84 S84 AI84 AM84 O90 S90 AI90 AM90 AQ43:AR43 AU43 AU48 AQ48:AR48 AL48:AM48 AG48:AH48 AB48:AC48 W48:X48 R48:S48 M48:N48 H48:I48 E48 E50 H50:I50 M50:N50 R50:S50 W50:X50 AB50:AC50 AG50:AH50 AL50:AM50 AQ50:AR50 AU50 AU55 AQ55:AR55 AL55:AM55 AG55:AH55 AB55:AC55 W55:X55 R55:S55 M55:N55 H55:I55 E55 O46 S46 AI46 AM46 O52 S52 AI52 AM52 AQ98:AR98 AU98 AU103 AQ103:AR103 AL103:AM103 AG103:AH103 AB103:AC103 W103:X103 R103:S103 M103:N103 H103:I103 E103 E105 H105:I105 M105:N105 R105:S105 W105:X105 AB105:AC105 AG105:AH105 AL105:AM105 AQ105:AR105 AU105 AU110 AQ110:AR110 AL110:AM110 AG110:AH110 AB110:AC110 W110:X110 R110:S110 M110:N110 H110:I110 E110 O101 S101 AI101 AM101 O107 S107 AI107 AM107 AQ115:AR115 AU115 AU120 AQ120:AR120 AL120:AM120 AG120:AH120 AB120:AC120 W120:X120 R120:S120 M120:N120 H120:I120 E120 E122 H122:I122 M122:N122 R122:S122 W122:X122 AB122:AC122 AG122:AH122 AL122:AM122 AQ122:AR122 AU122 AU127 AQ127:AR127 AL127:AM127 AG127:AH127 AB127:AC127 W127:X127 R127:S127 M127:N127 H127:I127 E127 O118 S118 AI118 AM118 O124 S124 AI124 AM124 AP147 AP150 AG147 AG150 AE150 AE147 V147 V150 T150 T147 J147 J150 AQ132:AR132 AU132 AU137 AQ137:AR137 AL137:AM137 AG137:AH137 AB137:AC137 W137:X137 R137:S137 M137:N137 H137:I137 E137 E139 H139:I139 M139:N139 R139:S139 W139:X139 AB139:AC139 AG139:AH139 AL139:AM139 AQ139:AR139 AU139 AU144 AQ144:AR144 AL144:AM144 AG144:AH144 AB144:AC144 W144:X144 R144:S144 M144:N144 H144:I144 E144 O135 S135 AI135 AM135 O141 S141 AI141 AM141 D168 H168:I168 M168:N168 R168:S168 W168:X168 AB168:AC168 AG168:AH168 AL168:AM168 AQ168:AR168 AV168 AV173 D173 H173:I173 M173:N173 R173:S173 W173:X173 AB173:AC173 AG173:AH173 AL173:AM173 AQ173:AR173 AQ175:AR175 AV175 AV180 AQ180:AR180 AL180:AM180 AG180:AH180 AB180:AC180 W180:X180 R180:S180 M180:N180 H180:I180 D180 D175 H175:I175 M175:N175 R175:S175 W175:X175 AB175:AC175 AG175:AH175 AL175:AM175 I5 AQ5 AL5:AM5 M5:N5 M10:N10 AL10:AM10 AQ10 I10 X14 AB14 X7 AB7 O25 S25 AI25 AM25 O31 S31 AI31 AM31 J75 J78 T78 T75 V75 V78 AE78 AE75 AG75 AG78 AP78 AP75 AQ60:AR60 AU60 AU65 AQ65:AR65 AL65:AM65 AG65:AH65 AB65:AC65 W65:X65 R65:S65 M65:N65 H65:I65 E65 E67 H67:I67 M67:N67 R67:S67 W67:X67 AB67:AC67 AG67:AH67 AL67:AM67 AQ67:AR67 AU67 AU72 AQ72:AR72 AL72:AM72 AG72:AH72 AB72:AC72 W72:X72 R72:S72 M72:N72 H72:I72 E72 O63 S63 AI63 AM63 O69 S69 AI69 AM69 E43 H43:I43 M43:N43 R43:S43 W43:X43 AB43:AC43 AG43:AH43 AL43:AM43 E60 H60:I60 M60:N60 R60:S60 W60:X60 AB60:AC60 AG60:AH60 AL60:AM60 E81 H81:I81 M81:N81 R81:S81 W81:X81 AB81:AC81 AG81:AH81 AL81:AM81 E98 H98:I98 M98:N98 R98:S98 W98:X98 AB98:AC98 AG98:AH98 AL98:AM98 E115 H115:I115 M115:N115 R115:S115 W115:X115 AB115:AC115 AG115:AH115 AL115:AM115 E132 H132:I132 M132:N132 R132:S132 W132:X132 AB132:AC132 AG132:AH132 AL132:AM132 E153 H153:I153 M153:N153 R153:S153 W153:X153 AB153:AC153 AG153:AH153 AL153:AM153 AQ153:AR153 AU153 AU158 AQ158:AR158 AL158:AM158 AG158:AH158 AB158:AC158 W158:X158 R158:S158 M158:N158 H158:I158 E158 E160 H160:I160 M160:N160 R160:S160 W160:X160 AB160:AC160 AG160:AH160 AL160:AM160 AQ160:AR160 AU160 AU165 AQ165:AR165 AL165:AM165 AG165:AH165 AB165:AC165 W165:X165 R165:S165 M165:N165 H165:I165 E165 O156 S156 AI156 AM156 O162 S162 AI162 AM162">
